--- a/public/downloads/Template Files/Timesheet Report Result.xlsx
+++ b/public/downloads/Template Files/Timesheet Report Result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RMG\Documents\Task\1-26~Excel Link\Template Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E3A13E-1552-405C-9892-A89953C674D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5F3018-42D8-4CA0-8A58-977A3FE7BABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29010" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1521,11 +1521,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1551,8 +1550,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2782,5694 +2781,5695 @@
   <dimension ref="A1:L335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Admin .</v>
       </c>
-      <c r="B2" t="str">
+      <c r="B2" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2009-11-02 00:00:00</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C2" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>Burns</v>
       </c>
-      <c r="D2" t="str">
+      <c r="D2" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v>Misc</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" t="str">
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L2" t="b">
+      <c r="L2" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Admin .</v>
       </c>
-      <c r="B3" t="str">
+      <c r="B3" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2010-05-14 00:00:00</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C3" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v/>
       </c>
-      <c r="D3" t="str">
+      <c r="D3" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v/>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>1</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" t="str">
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v>From Roster</v>
       </c>
-      <c r="L3" t="b">
+      <c r="L3" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Admin .</v>
       </c>
-      <c r="B4" t="str">
+      <c r="B4" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2011-04-16 00:00:00</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C4" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>Acme Rockets</v>
       </c>
-      <c r="D4" t="str">
+      <c r="D4" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v/>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>2</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" t="str">
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L4" t="b">
+      <c r="L4" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Admin .</v>
       </c>
-      <c r="B5" t="str">
+      <c r="B5" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2022-10-06 00:00:00</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C5" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v/>
       </c>
-      <c r="D5" t="str">
+      <c r="D5" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v/>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>1</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" t="str">
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L5" t="b">
+      <c r="L5" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Admin .</v>
       </c>
-      <c r="B6" t="str">
+      <c r="B6" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2022-11-15 00:00:00</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C6" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>Test 1</v>
       </c>
-      <c r="D6" t="str">
+      <c r="D6" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v>1 Day Labour Rate</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>2</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" t="str">
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L6" t="b">
+      <c r="L6" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="str">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Admin .</v>
       </c>
-      <c r="B7" t="str">
+      <c r="B7" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2022-11-25 00:00:00</v>
       </c>
-      <c r="C7" t="str">
+      <c r="C7" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>Test 1</v>
       </c>
-      <c r="D7" t="str">
+      <c r="D7" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v>1 Day Labour Rate</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>2.2200000000000002</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" t="str">
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L7" t="b">
+      <c r="L7" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="str">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>BinnyTest TestB</v>
       </c>
-      <c r="B8" t="str">
+      <c r="B8" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2022-11-28 00:00:00</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C8" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>Training</v>
       </c>
-      <c r="D8" t="str">
+      <c r="D8" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v>1 Day Labour Rate</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>1</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" t="str">
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L8" t="b">
+      <c r="L8" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="str">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Bruno Braga</v>
       </c>
-      <c r="B9" t="str">
+      <c r="B9" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>1970-01-01 00:00:00</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C9" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>John Henry^KItchen</v>
       </c>
-      <c r="D9" t="str">
+      <c r="D9" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v>1 Day Labour Rate</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>10</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" t="str">
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L9" t="b">
+      <c r="L9" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="str">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Charles Woods</v>
       </c>
-      <c r="B10" t="str">
+      <c r="B10" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2008-09-12 00:00:00</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C10" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v/>
       </c>
-      <c r="D10" t="str">
+      <c r="D10" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v/>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>8</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" t="str">
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L10" t="b">
+      <c r="L10" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="str">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Charles Woods</v>
       </c>
-      <c r="B11" t="str">
+      <c r="B11" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2008-09-12 00:00:00</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C11" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v/>
       </c>
-      <c r="D11" t="str">
+      <c r="D11" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v/>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>3</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11" t="str">
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L11" t="b">
+      <c r="L11" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="str">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Charles Woods</v>
       </c>
-      <c r="B12" t="str">
+      <c r="B12" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2008-09-12 00:00:00</v>
       </c>
-      <c r="C12" t="str">
+      <c r="C12" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v/>
       </c>
-      <c r="D12" t="str">
+      <c r="D12" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v/>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>5</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
-      <c r="J12" t="str">
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L12" t="b">
+      <c r="L12" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="str">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Charles Woods</v>
       </c>
-      <c r="B13" t="str">
+      <c r="B13" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2008-09-12 00:00:00</v>
       </c>
-      <c r="C13" t="str">
+      <c r="C13" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v/>
       </c>
-      <c r="D13" t="str">
+      <c r="D13" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v/>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>5</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="J13" t="str">
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L13" t="b">
+      <c r="L13" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="str">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Charles Woods</v>
       </c>
-      <c r="B14" t="str">
+      <c r="B14" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2008-09-19 00:00:00</v>
       </c>
-      <c r="C14" t="str">
+      <c r="C14" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>Jones^Bathroom</v>
       </c>
-      <c r="D14" t="str">
+      <c r="D14" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v>Consulting</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>12</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0</v>
-      </c>
-      <c r="J14" t="str">
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L14" t="b">
+      <c r="L14" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="B15" t="str">
+      <c r="B15" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2008-10-04 09:02:54</v>
       </c>
-      <c r="C15" t="str">
+      <c r="C15" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>Burns</v>
       </c>
-      <c r="D15" t="str">
+      <c r="D15" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v/>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>6</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="J15" t="str">
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L15" t="b">
+      <c r="L15" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="str">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="B16" t="str">
+      <c r="B16" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2008-10-06 16:10:05</v>
       </c>
-      <c r="C16" t="str">
+      <c r="C16" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>Acme Rockets</v>
       </c>
-      <c r="D16" t="str">
+      <c r="D16" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v/>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>11</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0</v>
-      </c>
-      <c r="J16" t="str">
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L16" t="b">
+      <c r="L16" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" t="str">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="B17" t="str">
+      <c r="B17" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2009-09-09 00:00:00</v>
       </c>
-      <c r="C17" t="str">
+      <c r="C17" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>Burns</v>
       </c>
-      <c r="D17" t="str">
+      <c r="D17" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v/>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>3</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0</v>
-      </c>
-      <c r="J17" t="str">
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L17" t="b">
+      <c r="L17" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" t="str">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="B18" t="str">
+      <c r="B18" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2009-09-09 00:00:00</v>
       </c>
-      <c r="C18" t="str">
+      <c r="C18" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>Acme Rockets^AC59</v>
       </c>
-      <c r="D18" t="str">
+      <c r="D18" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v/>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>2</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0</v>
-      </c>
-      <c r="J18" t="str">
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L18" t="b">
+      <c r="L18" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" t="str">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="B19" t="str">
+      <c r="B19" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2009-09-09 00:00:00</v>
       </c>
-      <c r="C19" t="str">
+      <c r="C19" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>Acme Rockets^AC59</v>
       </c>
-      <c r="D19" t="str">
+      <c r="D19" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v/>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>4</v>
       </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0</v>
-      </c>
-      <c r="J19" t="str">
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L19" t="b">
+      <c r="L19" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" t="str">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="B20" t="str">
+      <c r="B20" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2009-09-09 00:00:00</v>
       </c>
-      <c r="C20" t="str">
+      <c r="C20" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>Acme Rockets^AC59</v>
       </c>
-      <c r="D20" t="str">
+      <c r="D20" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v/>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>5</v>
       </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0</v>
-      </c>
-      <c r="J20" t="str">
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L20" t="b">
+      <c r="L20" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" t="str">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="B21" t="str">
+      <c r="B21" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2009-09-09 00:00:00</v>
       </c>
-      <c r="C21" t="str">
+      <c r="C21" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>Acme Rockets^AC59</v>
       </c>
-      <c r="D21" t="str">
+      <c r="D21" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v/>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>4</v>
       </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21" s="2">
-        <v>0</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0</v>
-      </c>
-      <c r="J21" t="str">
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L21" t="b">
+      <c r="L21" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" t="str">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="B22" t="str">
+      <c r="B22" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2009-09-14 00:00:00</v>
       </c>
-      <c r="C22" t="str">
+      <c r="C22" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>Acme Rockets^AC59</v>
       </c>
-      <c r="D22" t="str">
+      <c r="D22" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v/>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>4</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22" s="2">
-        <v>0</v>
-      </c>
-      <c r="I22" s="2">
-        <v>0</v>
-      </c>
-      <c r="J22" t="str">
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L22" t="b">
+      <c r="L22" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" t="str">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="B23" t="str">
+      <c r="B23" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2009-09-28 00:00:00</v>
       </c>
-      <c r="C23" t="str">
+      <c r="C23" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>Burns</v>
       </c>
-      <c r="D23" t="str">
+      <c r="D23" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v>Electrical</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>1</v>
       </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23" s="2">
-        <v>0</v>
-      </c>
-      <c r="I23" s="2">
-        <v>0</v>
-      </c>
-      <c r="J23" t="str">
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L23" t="b">
+      <c r="L23" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" t="str">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="B24" t="str">
+      <c r="B24" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2009-10-06 00:00:00</v>
       </c>
-      <c r="C24" t="str">
+      <c r="C24" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v/>
       </c>
-      <c r="D24" t="str">
+      <c r="D24" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v/>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>5</v>
       </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24" s="2">
-        <v>0</v>
-      </c>
-      <c r="I24" s="2">
-        <v>0</v>
-      </c>
-      <c r="J24" t="str">
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L24" t="b">
+      <c r="L24" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" t="str">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="B25" t="str">
+      <c r="B25" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2009-10-06 00:00:00</v>
       </c>
-      <c r="C25" t="str">
+      <c r="C25" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>Acme Rockets</v>
       </c>
-      <c r="D25" t="str">
+      <c r="D25" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v>Cleaning</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>5</v>
       </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25" s="2">
-        <v>0</v>
-      </c>
-      <c r="I25" s="2">
-        <v>0</v>
-      </c>
-      <c r="J25" t="str">
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L25" t="b">
+      <c r="L25" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" t="str">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="B26" t="str">
+      <c r="B26" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2009-11-02 00:00:00</v>
       </c>
-      <c r="C26" t="str">
+      <c r="C26" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>Burns^64</v>
       </c>
-      <c r="D26" t="str">
+      <c r="D26" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v/>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>5</v>
       </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26" s="2">
-        <v>0</v>
-      </c>
-      <c r="I26" s="2">
-        <v>0</v>
-      </c>
-      <c r="J26" t="str">
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L26" t="b">
+      <c r="L26" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" t="str">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="B27" t="str">
+      <c r="B27" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2009-11-10 00:00:00</v>
       </c>
-      <c r="C27" t="str">
+      <c r="C27" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>Van Den Berg</v>
       </c>
-      <c r="D27" t="str">
+      <c r="D27" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v>Electrical</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>2</v>
       </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27" s="2">
-        <v>0</v>
-      </c>
-      <c r="I27" s="2">
-        <v>0</v>
-      </c>
-      <c r="J27" t="str">
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L27" t="b">
+      <c r="L27" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" t="str">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="B28" t="str">
+      <c r="B28" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2009-11-23 00:00:00</v>
       </c>
-      <c r="C28" t="str">
+      <c r="C28" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>Burns</v>
       </c>
-      <c r="D28" t="str">
+      <c r="D28" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v>Electrical</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>0.5</v>
       </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28" s="2">
-        <v>0</v>
-      </c>
-      <c r="I28" s="2">
-        <v>0</v>
-      </c>
-      <c r="J28" t="str">
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L28" t="b">
+      <c r="L28" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" t="str">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="B29" t="str">
+      <c r="B29" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2009-12-07 00:00:00</v>
       </c>
-      <c r="C29" t="str">
+      <c r="C29" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>Acme Rockets^AC59</v>
       </c>
-      <c r="D29" t="str">
+      <c r="D29" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v>Electrical</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>1.5</v>
       </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29" s="2">
-        <v>0</v>
-      </c>
-      <c r="I29" s="2">
-        <v>0</v>
-      </c>
-      <c r="J29" t="str">
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L29" t="b">
+      <c r="L29" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" t="str">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="B30" t="str">
+      <c r="B30" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2009-12-21 00:00:00</v>
       </c>
-      <c r="C30" t="str">
+      <c r="C30" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>Acme Rockets^AC59</v>
       </c>
-      <c r="D30" t="str">
+      <c r="D30" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v/>
       </c>
-      <c r="E30">
+      <c r="E30" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>5</v>
       </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30" s="2">
-        <v>0</v>
-      </c>
-      <c r="I30" s="2">
-        <v>0</v>
-      </c>
-      <c r="J30" t="str">
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L30" t="b">
+      <c r="L30" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" t="str">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="B31" t="str">
+      <c r="B31" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2010-03-31 00:00:00</v>
       </c>
-      <c r="C31" t="str">
+      <c r="C31" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>4X4 World</v>
       </c>
-      <c r="D31" t="str">
+      <c r="D31" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v>Cleaning</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>0.5</v>
       </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31" s="2">
-        <v>0</v>
-      </c>
-      <c r="I31" s="2">
-        <v>0</v>
-      </c>
-      <c r="J31" t="str">
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L31" t="b">
+      <c r="L31" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" t="str">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="B32" t="str">
+      <c r="B32" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2010-05-18 00:00:00</v>
       </c>
-      <c r="C32" t="str">
+      <c r="C32" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v/>
       </c>
-      <c r="D32" t="str">
+      <c r="D32" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v>Cleaning</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>2</v>
       </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32" s="2">
-        <v>0</v>
-      </c>
-      <c r="I32" s="2">
-        <v>0</v>
-      </c>
-      <c r="J32" t="str">
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L32" t="b">
+      <c r="L32" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" t="str">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="B33" t="str">
+      <c r="B33" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2010-05-18 00:00:00</v>
       </c>
-      <c r="C33" t="str">
+      <c r="C33" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>Acme Rockets</v>
       </c>
-      <c r="D33" t="str">
+      <c r="D33" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v>Cleaning</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>3</v>
       </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33" s="2">
-        <v>0</v>
-      </c>
-      <c r="I33" s="2">
-        <v>0</v>
-      </c>
-      <c r="J33" t="str">
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L33" t="b">
+      <c r="L33" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" t="str">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="B34" t="str">
+      <c r="B34" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2010-05-18 00:00:00</v>
       </c>
-      <c r="C34" t="str">
+      <c r="C34" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>Acme Rockets^AC59</v>
       </c>
-      <c r="D34" t="str">
+      <c r="D34" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v>Cleaning</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>2</v>
       </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34" s="2">
-        <v>0</v>
-      </c>
-      <c r="I34" s="2">
-        <v>0</v>
-      </c>
-      <c r="J34" t="str">
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L34" t="b">
+      <c r="L34" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" t="str">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="B35" t="str">
+      <c r="B35" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2010-06-03 00:00:00</v>
       </c>
-      <c r="C35" t="str">
+      <c r="C35" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>Acme Rockets</v>
       </c>
-      <c r="D35" t="str">
+      <c r="D35" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v>Electrical</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>0.5</v>
       </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35" s="2">
-        <v>0</v>
-      </c>
-      <c r="I35" s="2">
-        <v>0</v>
-      </c>
-      <c r="J35" t="str">
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L35" t="b">
+      <c r="L35" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" t="str">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="B36" t="str">
+      <c r="B36" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2010-08-30 00:00:00</v>
       </c>
-      <c r="C36" t="str">
+      <c r="C36" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>Ache Co^80</v>
       </c>
-      <c r="D36" t="str">
+      <c r="D36" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v>Cleaning</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>5</v>
       </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36" s="2">
-        <v>0</v>
-      </c>
-      <c r="I36" s="2">
-        <v>0</v>
-      </c>
-      <c r="J36" t="str">
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0</v>
+      </c>
+      <c r="I36" s="3">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L36" t="b">
+      <c r="L36" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" t="str">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="B37" t="str">
+      <c r="B37" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2010-08-31 00:00:00</v>
       </c>
-      <c r="C37" t="str">
+      <c r="C37" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>Acme Rockets</v>
       </c>
-      <c r="D37" t="str">
+      <c r="D37" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v/>
       </c>
-      <c r="E37">
+      <c r="E37" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>3</v>
       </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37" s="2">
-        <v>0</v>
-      </c>
-      <c r="I37" s="2">
-        <v>0</v>
-      </c>
-      <c r="J37" t="str">
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0</v>
+      </c>
+      <c r="I37" s="3">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L37" t="b">
+      <c r="L37" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" t="str">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="B38" t="str">
+      <c r="B38" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2010-11-19 00:00:00</v>
       </c>
-      <c r="C38" t="str">
+      <c r="C38" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>Acme Rockets</v>
       </c>
-      <c r="D38" t="str">
+      <c r="D38" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v>Cleaning</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>2</v>
       </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38" s="2">
-        <v>0</v>
-      </c>
-      <c r="I38" s="2">
-        <v>0</v>
-      </c>
-      <c r="J38" t="str">
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L38" t="b">
+      <c r="L38" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" t="str">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="B39" t="str">
+      <c r="B39" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2010-09-02 00:00:00</v>
       </c>
-      <c r="C39" t="str">
+      <c r="C39" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v/>
       </c>
-      <c r="D39" t="str">
+      <c r="D39" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v/>
       </c>
-      <c r="E39">
+      <c r="E39" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>1</v>
       </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39" s="2">
-        <v>0</v>
-      </c>
-      <c r="I39" s="2">
-        <v>0</v>
-      </c>
-      <c r="J39" t="str">
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v>From Roster</v>
       </c>
-      <c r="L39" t="b">
+      <c r="L39" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" t="str">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="B40" t="str">
+      <c r="B40" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2010-11-15 00:00:00</v>
       </c>
-      <c r="C40" t="str">
+      <c r="C40" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v/>
       </c>
-      <c r="D40" t="str">
+      <c r="D40" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v/>
       </c>
-      <c r="E40">
+      <c r="E40" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>1</v>
       </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40" s="2">
-        <v>0</v>
-      </c>
-      <c r="I40" s="2">
-        <v>0</v>
-      </c>
-      <c r="J40" t="str">
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="3">
+        <v>0</v>
+      </c>
+      <c r="I40" s="3">
+        <v>0</v>
+      </c>
+      <c r="J40" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v>From Roster</v>
       </c>
-      <c r="L40" t="b">
+      <c r="L40" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" t="str">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="B41" t="str">
+      <c r="B41" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2011-01-15 00:00:00</v>
       </c>
-      <c r="C41" t="str">
+      <c r="C41" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v/>
       </c>
-      <c r="D41" t="str">
+      <c r="D41" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v/>
       </c>
-      <c r="E41">
+      <c r="E41" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>1</v>
       </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41" s="2">
-        <v>0</v>
-      </c>
-      <c r="I41" s="2">
-        <v>0</v>
-      </c>
-      <c r="J41" t="str">
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v>From Roster</v>
       </c>
-      <c r="L41" t="b">
+      <c r="L41" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" t="str">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="B42" t="str">
+      <c r="B42" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2011-04-13 00:00:00</v>
       </c>
-      <c r="C42" t="str">
+      <c r="C42" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>Van Den Berg</v>
       </c>
-      <c r="D42" t="str">
+      <c r="D42" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v/>
       </c>
-      <c r="E42">
+      <c r="E42" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>5</v>
       </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42" s="2">
-        <v>0</v>
-      </c>
-      <c r="I42" s="2">
-        <v>0</v>
-      </c>
-      <c r="J42" t="str">
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L42" t="b">
+      <c r="L42" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" t="str">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="B43" t="str">
+      <c r="B43" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2011-07-06 00:00:00</v>
       </c>
-      <c r="C43" t="str">
+      <c r="C43" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>Ache Co</v>
       </c>
-      <c r="D43" t="str">
+      <c r="D43" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v/>
       </c>
-      <c r="E43">
+      <c r="E43" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>5</v>
       </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43" s="2">
-        <v>0</v>
-      </c>
-      <c r="I43" s="2">
-        <v>0</v>
-      </c>
-      <c r="J43" t="str">
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L43" t="b">
+      <c r="L43" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" t="str">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="B44" t="str">
+      <c r="B44" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2012-02-23 00:00:00</v>
       </c>
-      <c r="C44" t="str">
+      <c r="C44" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>Acme Rockets^AC59</v>
       </c>
-      <c r="D44" t="str">
+      <c r="D44" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v>Cleaning</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>5</v>
       </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44" s="2">
-        <v>0</v>
-      </c>
-      <c r="I44" s="2">
-        <v>0</v>
-      </c>
-      <c r="J44" t="str">
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L44" t="b">
+      <c r="L44" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" t="str">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="B45" t="str">
+      <c r="B45" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2012-03-29 00:00:00</v>
       </c>
-      <c r="C45" t="str">
+      <c r="C45" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>Apple Corp</v>
       </c>
-      <c r="D45" t="str">
+      <c r="D45" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v/>
       </c>
-      <c r="E45">
+      <c r="E45" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>2</v>
       </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45" s="2">
-        <v>0</v>
-      </c>
-      <c r="I45" s="2">
-        <v>0</v>
-      </c>
-      <c r="J45" t="str">
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L45" t="b">
+      <c r="L45" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" t="str">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="B46" t="str">
+      <c r="B46" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2013-03-27 00:00:00</v>
       </c>
-      <c r="C46" t="str">
+      <c r="C46" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v/>
       </c>
-      <c r="D46" t="str">
+      <c r="D46" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v>Cleaning</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>5</v>
       </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46" s="2">
-        <v>0</v>
-      </c>
-      <c r="I46" s="2">
-        <v>0</v>
-      </c>
-      <c r="J46" t="str">
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L46" t="b">
+      <c r="L46" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" t="str">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="B47" t="str">
+      <c r="B47" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2013-05-01 00:00:00</v>
       </c>
-      <c r="C47" t="str">
+      <c r="C47" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>ABC</v>
       </c>
-      <c r="D47" t="str">
+      <c r="D47" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v>Cleaning</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>3</v>
       </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47" s="2">
-        <v>0</v>
-      </c>
-      <c r="I47" s="2">
-        <v>0</v>
-      </c>
-      <c r="J47" t="str">
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L47" t="b">
+      <c r="L47" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" t="str">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="B48" t="str">
+      <c r="B48" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2014-10-02 00:00:00</v>
       </c>
-      <c r="C48" t="str">
+      <c r="C48" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>ABC</v>
       </c>
-      <c r="D48" t="str">
+      <c r="D48" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v>Cleaning</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>1</v>
       </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48" s="2">
-        <v>0</v>
-      </c>
-      <c r="I48" s="2">
-        <v>0</v>
-      </c>
-      <c r="J48" t="str">
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L48" t="b">
+      <c r="L48" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" t="str">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="B49" t="str">
+      <c r="B49" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2015-07-23 00:00:00</v>
       </c>
-      <c r="C49" t="str">
+      <c r="C49" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>Ache Co</v>
       </c>
-      <c r="D49" t="str">
+      <c r="D49" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v>Cleaning</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>6</v>
       </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49" s="2">
-        <v>0</v>
-      </c>
-      <c r="I49" s="2">
-        <v>0</v>
-      </c>
-      <c r="J49" t="str">
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L49" t="b">
+      <c r="L49" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" t="str">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="B50" t="str">
+      <c r="B50" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2016-12-20 00:00:00</v>
       </c>
-      <c r="C50" t="str">
+      <c r="C50" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>ABC company</v>
       </c>
-      <c r="D50" t="str">
+      <c r="D50" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v/>
       </c>
-      <c r="E50">
+      <c r="E50" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>5</v>
       </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50" s="2">
-        <v>0</v>
-      </c>
-      <c r="I50" s="2">
-        <v>0</v>
-      </c>
-      <c r="J50" t="str">
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+      <c r="H50" s="3">
+        <v>0</v>
+      </c>
+      <c r="I50" s="3">
+        <v>0</v>
+      </c>
+      <c r="J50" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L50" t="b">
+      <c r="L50" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" t="str">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="B51" t="str">
+      <c r="B51" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2016-12-20 00:00:00</v>
       </c>
-      <c r="C51" t="str">
+      <c r="C51" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>ABC company</v>
       </c>
-      <c r="D51" t="str">
+      <c r="D51" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v>Electrical</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>2</v>
       </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51" s="2">
-        <v>0</v>
-      </c>
-      <c r="I51" s="2">
-        <v>0</v>
-      </c>
-      <c r="J51" t="str">
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+      <c r="H51" s="3">
+        <v>0</v>
+      </c>
+      <c r="I51" s="3">
+        <v>0</v>
+      </c>
+      <c r="J51" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L51" t="b">
+      <c r="L51" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" t="str">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="B52" t="str">
+      <c r="B52" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2018-01-20 00:00:00</v>
       </c>
-      <c r="C52" t="str">
+      <c r="C52" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>ABC company</v>
       </c>
-      <c r="D52" t="str">
+      <c r="D52" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v/>
       </c>
-      <c r="E52">
+      <c r="E52" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>2</v>
       </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52" s="2">
-        <v>0</v>
-      </c>
-      <c r="I52" s="2">
-        <v>0</v>
-      </c>
-      <c r="J52" t="str">
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L52" t="b">
+      <c r="L52" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" t="str">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="B53" t="str">
+      <c r="B53" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2022-03-23 00:00:00</v>
       </c>
-      <c r="C53" t="str">
+      <c r="C53" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v/>
       </c>
-      <c r="D53" t="str">
+      <c r="D53" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v/>
       </c>
-      <c r="E53">
+      <c r="E53" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>3</v>
       </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53" s="2">
-        <v>0</v>
-      </c>
-      <c r="I53" s="2">
-        <v>0</v>
-      </c>
-      <c r="J53" t="str">
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+      <c r="H53" s="3">
+        <v>0</v>
+      </c>
+      <c r="I53" s="3">
+        <v>0</v>
+      </c>
+      <c r="J53" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L53" t="b">
+      <c r="L53" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" t="str">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="B54" t="str">
+      <c r="B54" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2022-10-03 00:00:00</v>
       </c>
-      <c r="C54" t="str">
+      <c r="C54" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>ABC^Repair No 40</v>
       </c>
-      <c r="D54" t="str">
+      <c r="D54" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v>Rounding</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>0.02</v>
       </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54" s="2">
-        <v>0</v>
-      </c>
-      <c r="I54" s="2">
-        <v>0</v>
-      </c>
-      <c r="J54" t="str">
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L54" t="b">
+      <c r="L54" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" t="str">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="B55" t="str">
+      <c r="B55" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2022-10-06 00:00:00</v>
       </c>
-      <c r="C55" t="str">
+      <c r="C55" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v/>
       </c>
-      <c r="D55" t="str">
+      <c r="D55" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v/>
       </c>
-      <c r="E55">
+      <c r="E55" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>1</v>
       </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55" s="2">
-        <v>0</v>
-      </c>
-      <c r="I55" s="2">
-        <v>0</v>
-      </c>
-      <c r="J55" t="str">
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
+      <c r="H55" s="3">
+        <v>0</v>
+      </c>
+      <c r="I55" s="3">
+        <v>0</v>
+      </c>
+      <c r="J55" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L55" t="b">
+      <c r="L55" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" t="str">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="B56" t="str">
+      <c r="B56" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2022-10-06 00:00:00</v>
       </c>
-      <c r="C56" t="str">
+      <c r="C56" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v/>
       </c>
-      <c r="D56" t="str">
+      <c r="D56" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v/>
       </c>
-      <c r="E56">
+      <c r="E56" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>1</v>
       </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56" s="2">
-        <v>0</v>
-      </c>
-      <c r="I56" s="2">
-        <v>0</v>
-      </c>
-      <c r="J56" t="str">
+      <c r="F56" s="1">
+        <v>0</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+      <c r="H56" s="3">
+        <v>0</v>
+      </c>
+      <c r="I56" s="3">
+        <v>0</v>
+      </c>
+      <c r="J56" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L56" t="b">
+      <c r="L56" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" t="str">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="B57" t="str">
+      <c r="B57" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2022-10-11 00:00:00</v>
       </c>
-      <c r="C57" t="str">
+      <c r="C57" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v/>
       </c>
-      <c r="D57" t="str">
+      <c r="D57" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v/>
       </c>
-      <c r="E57">
+      <c r="E57" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>1</v>
       </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57" s="2">
-        <v>0</v>
-      </c>
-      <c r="I57" s="2">
-        <v>0</v>
-      </c>
-      <c r="J57" t="str">
+      <c r="F57" s="1">
+        <v>0</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L57" t="b">
+      <c r="L57" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" t="str">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="B58" t="str">
+      <c r="B58" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2022-11-08 00:00:00</v>
       </c>
-      <c r="C58" t="str">
+      <c r="C58" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>test lead customer .</v>
       </c>
-      <c r="D58" t="str">
+      <c r="D58" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v>1 Day Labour Rate</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>0.78</v>
       </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58" s="2">
-        <v>0</v>
-      </c>
-      <c r="I58" s="2">
-        <v>0</v>
-      </c>
-      <c r="J58" t="str">
+      <c r="F58" s="1">
+        <v>0</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L58" t="b">
+      <c r="L58" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" t="str">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="B59" t="str">
+      <c r="B59" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2022-11-15 00:00:00</v>
       </c>
-      <c r="C59" t="str">
+      <c r="C59" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>Binny Company</v>
       </c>
-      <c r="D59" t="str">
+      <c r="D59" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v>1 Day Labour Rate</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>0.42</v>
       </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59" s="2">
-        <v>0</v>
-      </c>
-      <c r="I59" s="2">
-        <v>0</v>
-      </c>
-      <c r="J59" t="str">
+      <c r="F59" s="1">
+        <v>0</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L59" t="b">
+      <c r="L59" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" t="str">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="B60" t="str">
+      <c r="B60" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2022-11-15 00:00:00</v>
       </c>
-      <c r="C60" t="str">
+      <c r="C60" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>Binny Company</v>
       </c>
-      <c r="D60" t="str">
+      <c r="D60" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v>1 Day Labour Rate</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>0.45</v>
       </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60" s="2">
-        <v>0</v>
-      </c>
-      <c r="I60" s="2">
-        <v>0</v>
-      </c>
-      <c r="J60" t="str">
+      <c r="F60" s="1">
+        <v>0</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0</v>
+      </c>
+      <c r="H60" s="3">
+        <v>0</v>
+      </c>
+      <c r="I60" s="3">
+        <v>0</v>
+      </c>
+      <c r="J60" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L60" t="b">
+      <c r="L60" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" t="str">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="B61" t="str">
+      <c r="B61" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2022-11-15 00:00:00</v>
       </c>
-      <c r="C61" t="str">
+      <c r="C61" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>Binny Company</v>
       </c>
-      <c r="D61" t="str">
+      <c r="D61" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v>1 Day Labour Rate</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>0.47</v>
       </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61" s="2">
-        <v>0</v>
-      </c>
-      <c r="I61" s="2">
-        <v>0</v>
-      </c>
-      <c r="J61" t="str">
+      <c r="F61" s="1">
+        <v>0</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L61" t="b">
+      <c r="L61" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" t="str">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="B62" t="str">
+      <c r="B62" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2022-11-24 00:00:00</v>
       </c>
-      <c r="C62" t="str">
+      <c r="C62" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>ABC^Test Drive</v>
       </c>
-      <c r="D62" t="str">
+      <c r="D62" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v>1 Day Labour Rate</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>4</v>
       </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62" s="2">
-        <v>0</v>
-      </c>
-      <c r="I62" s="2">
-        <v>0</v>
-      </c>
-      <c r="J62" t="str">
+      <c r="F62" s="1">
+        <v>0</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L62" t="b">
+      <c r="L62" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" t="str">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="B63" t="str">
+      <c r="B63" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2022-11-24 00:00:00</v>
       </c>
-      <c r="C63" t="str">
+      <c r="C63" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>Fischbein</v>
       </c>
-      <c r="D63" t="str">
+      <c r="D63" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v>1 Day Labour Rate</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>0.02</v>
       </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63" s="2">
-        <v>0</v>
-      </c>
-      <c r="I63" s="2">
-        <v>0</v>
-      </c>
-      <c r="J63" t="str">
+      <c r="F63" s="1">
+        <v>0</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0</v>
+      </c>
+      <c r="H63" s="3">
+        <v>0</v>
+      </c>
+      <c r="I63" s="3">
+        <v>0</v>
+      </c>
+      <c r="J63" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v>Notes</v>
       </c>
-      <c r="L63" t="b">
+      <c r="L63" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" t="str">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="B64" t="str">
+      <c r="B64" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2022-11-28 00:00:00</v>
       </c>
-      <c r="C64" t="str">
+      <c r="C64" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>BioTrackTHC</v>
       </c>
-      <c r="D64" t="str">
+      <c r="D64" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v>1 Day Labour Rate</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>0.02</v>
       </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64" s="2">
-        <v>0</v>
-      </c>
-      <c r="I64" s="2">
-        <v>0</v>
-      </c>
-      <c r="J64" t="str">
+      <c r="F64" s="1">
+        <v>0</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0</v>
+      </c>
+      <c r="H64" s="3">
+        <v>0</v>
+      </c>
+      <c r="I64" s="3">
+        <v>0</v>
+      </c>
+      <c r="J64" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L64" t="b">
+      <c r="L64" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" t="str">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="B65" t="str">
+      <c r="B65" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2023-01-05 00:00:00</v>
       </c>
-      <c r="C65" t="str">
+      <c r="C65" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>Metrc</v>
       </c>
-      <c r="D65" t="str">
+      <c r="D65" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v>1 Day Labour Rate</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>1</v>
       </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65" s="2">
-        <v>0</v>
-      </c>
-      <c r="I65" s="2">
-        <v>0</v>
-      </c>
-      <c r="J65" t="str">
+      <c r="F65" s="1">
+        <v>0</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0</v>
+      </c>
+      <c r="H65" s="3">
+        <v>0</v>
+      </c>
+      <c r="I65" s="3">
+        <v>0</v>
+      </c>
+      <c r="J65" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L65" t="b">
+      <c r="L65" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" t="str">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="B66" t="str">
+      <c r="B66" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2023-01-05 00:00:00</v>
       </c>
-      <c r="C66" t="str">
+      <c r="C66" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>Metrc</v>
       </c>
-      <c r="D66" t="str">
+      <c r="D66" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v>1 Day Labour Rate</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>0.03</v>
       </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66" s="2">
-        <v>0</v>
-      </c>
-      <c r="I66" s="2">
-        <v>0</v>
-      </c>
-      <c r="J66" t="str">
+      <c r="F66" s="1">
+        <v>0</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0</v>
+      </c>
+      <c r="H66" s="3">
+        <v>0</v>
+      </c>
+      <c r="I66" s="3">
+        <v>0</v>
+      </c>
+      <c r="J66" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L66" t="b">
+      <c r="L66" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" t="str">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="B67" t="str">
+      <c r="B67" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2023-01-05 00:00:00</v>
       </c>
-      <c r="C67" t="str">
+      <c r="C67" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>Fischbein</v>
       </c>
-      <c r="D67" t="str">
+      <c r="D67" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v>1 Day Labour Rate</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>1</v>
       </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67" s="2">
-        <v>0</v>
-      </c>
-      <c r="I67" s="2">
-        <v>0</v>
-      </c>
-      <c r="J67" t="str">
+      <c r="F67" s="1">
+        <v>0</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0</v>
+      </c>
+      <c r="H67" s="3">
+        <v>0</v>
+      </c>
+      <c r="I67" s="3">
+        <v>0</v>
+      </c>
+      <c r="J67" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L67" t="b">
+      <c r="L67" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" t="str">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="B68" t="str">
+      <c r="B68" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2023-02-23 00:00:00</v>
       </c>
-      <c r="C68" t="str">
+      <c r="C68" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>Acme Rockets</v>
       </c>
-      <c r="D68" t="str">
+      <c r="D68" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v/>
       </c>
-      <c r="E68">
+      <c r="E68" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>1.67E-2</v>
       </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="H68" s="2">
-        <v>0</v>
-      </c>
-      <c r="I68" s="2">
-        <v>0</v>
-      </c>
-      <c r="J68" t="str">
+      <c r="F68" s="1">
+        <v>0</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0</v>
+      </c>
+      <c r="H68" s="3">
+        <v>0</v>
+      </c>
+      <c r="I68" s="3">
+        <v>0</v>
+      </c>
+      <c r="J68" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v>wwwwww</v>
       </c>
-      <c r="L68" t="b">
+      <c r="L68" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" t="str">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="B69" t="str">
+      <c r="B69" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2023-02-23 00:00:00</v>
       </c>
-      <c r="C69" t="str">
+      <c r="C69" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v/>
       </c>
-      <c r="D69" t="str">
+      <c r="D69" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v/>
       </c>
-      <c r="E69">
+      <c r="E69" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>1.67E-2</v>
       </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="H69" s="2">
-        <v>0</v>
-      </c>
-      <c r="I69" s="2">
-        <v>0</v>
-      </c>
-      <c r="J69" t="str">
+      <c r="F69" s="1">
+        <v>0</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0</v>
+      </c>
+      <c r="H69" s="3">
+        <v>0</v>
+      </c>
+      <c r="I69" s="3">
+        <v>0</v>
+      </c>
+      <c r="J69" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L69" t="b">
+      <c r="L69" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" t="str">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="B70" t="str">
+      <c r="B70" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2023-02-24 00:00:00</v>
       </c>
-      <c r="C70" t="str">
+      <c r="C70" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v/>
       </c>
-      <c r="D70" t="str">
+      <c r="D70" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v/>
       </c>
-      <c r="E70">
+      <c r="E70" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>1.67E-2</v>
       </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="H70" s="2">
-        <v>0</v>
-      </c>
-      <c r="I70" s="2">
-        <v>0</v>
-      </c>
-      <c r="J70" t="str">
+      <c r="F70" s="1">
+        <v>0</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v>ert</v>
       </c>
-      <c r="L70" t="b">
+      <c r="L70" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" t="str">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="B71" t="str">
+      <c r="B71" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2023-02-24 00:00:00</v>
       </c>
-      <c r="C71" t="str">
+      <c r="C71" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v/>
       </c>
-      <c r="D71" t="str">
+      <c r="D71" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v/>
       </c>
-      <c r="E71">
+      <c r="E71" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>1.67E-2</v>
       </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="H71" s="2">
-        <v>0</v>
-      </c>
-      <c r="I71" s="2">
-        <v>0</v>
-      </c>
-      <c r="J71" t="str">
+      <c r="F71" s="1">
+        <v>0</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0</v>
+      </c>
+      <c r="H71" s="3">
+        <v>0</v>
+      </c>
+      <c r="I71" s="3">
+        <v>0</v>
+      </c>
+      <c r="J71" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v>ert</v>
       </c>
-      <c r="L71" t="b">
+      <c r="L71" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" t="str">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="B72" t="str">
+      <c r="B72" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2023-02-24 00:00:00</v>
       </c>
-      <c r="C72" t="str">
+      <c r="C72" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>Acme Rockets^AC59</v>
       </c>
-      <c r="D72" t="str">
+      <c r="D72" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v/>
       </c>
-      <c r="E72">
+      <c r="E72" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>1.67E-2</v>
       </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-      <c r="H72" s="2">
-        <v>0</v>
-      </c>
-      <c r="I72" s="2">
-        <v>0</v>
-      </c>
-      <c r="J72" t="str">
+      <c r="F72" s="1">
+        <v>0</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0</v>
+      </c>
+      <c r="H72" s="3">
+        <v>0</v>
+      </c>
+      <c r="I72" s="3">
+        <v>0</v>
+      </c>
+      <c r="J72" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L72" t="b">
+      <c r="L72" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" t="str">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="B73" t="str">
+      <c r="B73" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2023-02-24 00:00:00</v>
       </c>
-      <c r="C73" t="str">
+      <c r="C73" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>Acme Rockets</v>
       </c>
-      <c r="D73" t="str">
+      <c r="D73" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v/>
       </c>
-      <c r="E73">
+      <c r="E73" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>1.67E-2</v>
       </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73" s="2">
-        <v>0</v>
-      </c>
-      <c r="I73" s="2">
-        <v>0</v>
-      </c>
-      <c r="J73" t="str">
+      <c r="F73" s="1">
+        <v>0</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0</v>
+      </c>
+      <c r="H73" s="3">
+        <v>0</v>
+      </c>
+      <c r="I73" s="3">
+        <v>0</v>
+      </c>
+      <c r="J73" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L73" t="b">
+      <c r="L73" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" t="str">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Hasan Test</v>
       </c>
-      <c r="B74" t="str">
+      <c r="B74" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2022-09-08 00:00:00</v>
       </c>
-      <c r="C74" t="str">
+      <c r="C74" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>Binny Company</v>
       </c>
-      <c r="D74" t="str">
+      <c r="D74" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v>General Materials</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>0.12</v>
       </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74" s="2">
-        <v>0</v>
-      </c>
-      <c r="I74" s="2">
-        <v>0</v>
-      </c>
-      <c r="J74" t="str">
+      <c r="F74" s="1">
+        <v>0</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0</v>
+      </c>
+      <c r="H74" s="3">
+        <v>0</v>
+      </c>
+      <c r="I74" s="3">
+        <v>0</v>
+      </c>
+      <c r="J74" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L74" t="b">
+      <c r="L74" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" t="str">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Hasan Test</v>
       </c>
-      <c r="B75" t="str">
+      <c r="B75" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2022-09-09 00:00:00</v>
       </c>
-      <c r="C75" t="str">
+      <c r="C75" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>Binny Company</v>
       </c>
-      <c r="D75" t="str">
+      <c r="D75" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v/>
       </c>
-      <c r="E75">
+      <c r="E75" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>0.65</v>
       </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75" s="2">
-        <v>0</v>
-      </c>
-      <c r="I75" s="2">
-        <v>0</v>
-      </c>
-      <c r="J75" t="str">
+      <c r="F75" s="1">
+        <v>0</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0</v>
+      </c>
+      <c r="H75" s="3">
+        <v>0</v>
+      </c>
+      <c r="I75" s="3">
+        <v>0</v>
+      </c>
+      <c r="J75" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L75" t="b">
+      <c r="L75" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" t="str">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Jane Smith</v>
       </c>
-      <c r="B76" t="str">
+      <c r="B76" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2022-11-08 00:00:00</v>
       </c>
-      <c r="C76" t="str">
+      <c r="C76" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>Joes Cars</v>
       </c>
-      <c r="D76" t="str">
+      <c r="D76" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v>1 Day Labour Rate</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>1.5</v>
       </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76" s="2">
-        <v>0</v>
-      </c>
-      <c r="I76" s="2">
-        <v>0</v>
-      </c>
-      <c r="J76" t="str">
+      <c r="F76" s="1">
+        <v>0</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0</v>
+      </c>
+      <c r="H76" s="3">
+        <v>0</v>
+      </c>
+      <c r="I76" s="3">
+        <v>0</v>
+      </c>
+      <c r="J76" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v xml:space="preserve">Labour only
 </v>
       </c>
-      <c r="L76" t="b">
+      <c r="L76" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" t="str">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Jason Plumm</v>
       </c>
-      <c r="B77" t="str">
+      <c r="B77" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2009-02-18 00:00:00</v>
       </c>
-      <c r="C77" t="str">
+      <c r="C77" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>Apple Corp</v>
       </c>
-      <c r="D77" t="str">
+      <c r="D77" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v>Consultancy</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>10</v>
       </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
-      <c r="H77" s="2">
-        <v>0</v>
-      </c>
-      <c r="I77" s="2">
-        <v>0</v>
-      </c>
-      <c r="J77" t="str">
+      <c r="F77" s="1">
+        <v>0</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0</v>
+      </c>
+      <c r="H77" s="3">
+        <v>0</v>
+      </c>
+      <c r="I77" s="3">
+        <v>0</v>
+      </c>
+      <c r="J77" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L77" t="b">
+      <c r="L77" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" t="str">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Jason Plumm</v>
       </c>
-      <c r="B78" t="str">
+      <c r="B78" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2009-03-11 00:00:00</v>
       </c>
-      <c r="C78" t="str">
+      <c r="C78" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>Big Burtha</v>
       </c>
-      <c r="D78" t="str">
+      <c r="D78" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v>Consultancy</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>2</v>
       </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="H78" s="2">
-        <v>0</v>
-      </c>
-      <c r="I78" s="2">
-        <v>0</v>
-      </c>
-      <c r="J78" t="str">
+      <c r="F78" s="1">
+        <v>0</v>
+      </c>
+      <c r="G78" s="1">
+        <v>0</v>
+      </c>
+      <c r="H78" s="3">
+        <v>0</v>
+      </c>
+      <c r="I78" s="3">
+        <v>0</v>
+      </c>
+      <c r="J78" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L78" t="b">
+      <c r="L78" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" t="str">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Jason Plumm</v>
       </c>
-      <c r="B79" t="str">
+      <c r="B79" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2009-11-10 00:00:00</v>
       </c>
-      <c r="C79" t="str">
+      <c r="C79" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>Van Den Berg</v>
       </c>
-      <c r="D79" t="str">
+      <c r="D79" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v>Consultancy</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>2</v>
       </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
-      <c r="H79" s="2">
-        <v>0</v>
-      </c>
-      <c r="I79" s="2">
-        <v>0</v>
-      </c>
-      <c r="J79" t="str">
+      <c r="F79" s="1">
+        <v>0</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0</v>
+      </c>
+      <c r="H79" s="3">
+        <v>0</v>
+      </c>
+      <c r="I79" s="3">
+        <v>0</v>
+      </c>
+      <c r="J79" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L79" t="b">
+      <c r="L79" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" t="str">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Jason Plumm</v>
       </c>
-      <c r="B80" t="str">
+      <c r="B80" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2016-12-20 00:00:00</v>
       </c>
-      <c r="C80" t="str">
+      <c r="C80" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>ABC company</v>
       </c>
-      <c r="D80" t="str">
+      <c r="D80" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v/>
       </c>
-      <c r="E80">
+      <c r="E80" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>2</v>
       </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-      <c r="H80" s="2">
-        <v>0</v>
-      </c>
-      <c r="I80" s="2">
-        <v>0</v>
-      </c>
-      <c r="J80" t="str">
+      <c r="F80" s="1">
+        <v>0</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0</v>
+      </c>
+      <c r="H80" s="3">
+        <v>0</v>
+      </c>
+      <c r="I80" s="3">
+        <v>0</v>
+      </c>
+      <c r="J80" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L80" t="b">
+      <c r="L80" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" t="str">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Jason Plumm</v>
       </c>
-      <c r="B81" t="str">
+      <c r="B81" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2017-08-17 00:00:00</v>
       </c>
-      <c r="C81" t="str">
+      <c r="C81" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>ABC</v>
       </c>
-      <c r="D81" t="str">
+      <c r="D81" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v/>
       </c>
-      <c r="E81">
+      <c r="E81" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>5</v>
       </c>
-      <c r="F81">
-        <v>0</v>
-      </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
-      <c r="H81" s="2">
-        <v>0</v>
-      </c>
-      <c r="I81" s="2">
-        <v>0</v>
-      </c>
-      <c r="J81" t="str">
+      <c r="F81" s="1">
+        <v>0</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L81" t="b">
+      <c r="L81" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" t="str">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Jason Plumm</v>
       </c>
-      <c r="B82" t="str">
+      <c r="B82" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2018-01-20 00:00:00</v>
       </c>
-      <c r="C82" t="str">
+      <c r="C82" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>ABC company</v>
       </c>
-      <c r="D82" t="str">
+      <c r="D82" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v/>
       </c>
-      <c r="E82">
+      <c r="E82" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>4</v>
       </c>
-      <c r="F82">
-        <v>0</v>
-      </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
-      <c r="H82" s="2">
-        <v>0</v>
-      </c>
-      <c r="I82" s="2">
-        <v>0</v>
-      </c>
-      <c r="J82" t="str">
+      <c r="F82" s="1">
+        <v>0</v>
+      </c>
+      <c r="G82" s="1">
+        <v>0</v>
+      </c>
+      <c r="H82" s="3">
+        <v>0</v>
+      </c>
+      <c r="I82" s="3">
+        <v>0</v>
+      </c>
+      <c r="J82" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L82" t="b">
+      <c r="L82" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" t="str">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Jo Singh</v>
       </c>
-      <c r="B83" t="str">
+      <c r="B83" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2008-09-27 00:00:00</v>
       </c>
-      <c r="C83" t="str">
+      <c r="C83" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>Jones^Bathroom</v>
       </c>
-      <c r="D83" t="str">
+      <c r="D83" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v/>
       </c>
-      <c r="E83">
+      <c r="E83" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>8</v>
       </c>
-      <c r="F83">
-        <v>0</v>
-      </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
-      <c r="H83" s="2">
-        <v>0</v>
-      </c>
-      <c r="I83" s="2">
-        <v>0</v>
-      </c>
-      <c r="J83" t="str">
+      <c r="F83" s="1">
+        <v>0</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L83" t="b">
+      <c r="L83" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" t="str">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Jo Singh</v>
       </c>
-      <c r="B84" t="str">
+      <c r="B84" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2008-09-27 00:00:00</v>
       </c>
-      <c r="C84" t="str">
+      <c r="C84" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>Jones^Bathroom</v>
       </c>
-      <c r="D84" t="str">
+      <c r="D84" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v/>
       </c>
-      <c r="E84">
+      <c r="E84" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>8</v>
       </c>
-      <c r="F84">
-        <v>0</v>
-      </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
-      <c r="H84" s="2">
-        <v>0</v>
-      </c>
-      <c r="I84" s="2">
-        <v>0</v>
-      </c>
-      <c r="J84" t="str">
+      <c r="F84" s="1">
+        <v>0</v>
+      </c>
+      <c r="G84" s="1">
+        <v>0</v>
+      </c>
+      <c r="H84" s="3">
+        <v>0</v>
+      </c>
+      <c r="I84" s="3">
+        <v>0</v>
+      </c>
+      <c r="J84" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L84" t="b">
+      <c r="L84" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" t="str">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Jo Singh</v>
       </c>
-      <c r="B85" t="str">
+      <c r="B85" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2008-10-13 10:11:32</v>
       </c>
-      <c r="C85" t="str">
+      <c r="C85" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>Acme Rockets</v>
       </c>
-      <c r="D85" t="str">
+      <c r="D85" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v/>
       </c>
-      <c r="E85">
+      <c r="E85" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>4</v>
       </c>
-      <c r="F85">
-        <v>0</v>
-      </c>
-      <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="H85" s="2">
-        <v>0</v>
-      </c>
-      <c r="I85" s="2">
-        <v>0</v>
-      </c>
-      <c r="J85" t="str">
+      <c r="F85" s="1">
+        <v>0</v>
+      </c>
+      <c r="G85" s="1">
+        <v>0</v>
+      </c>
+      <c r="H85" s="3">
+        <v>0</v>
+      </c>
+      <c r="I85" s="3">
+        <v>0</v>
+      </c>
+      <c r="J85" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L85" t="b">
+      <c r="L85" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" t="str">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Jo Singh</v>
       </c>
-      <c r="B86" t="str">
+      <c r="B86" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2008-10-13 10:11:44</v>
       </c>
-      <c r="C86" t="str">
+      <c r="C86" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>Jones^Bathroom</v>
       </c>
-      <c r="D86" t="str">
+      <c r="D86" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v/>
       </c>
-      <c r="E86">
+      <c r="E86" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>3</v>
       </c>
-      <c r="F86">
-        <v>0</v>
-      </c>
-      <c r="G86">
-        <v>0</v>
-      </c>
-      <c r="H86" s="2">
-        <v>0</v>
-      </c>
-      <c r="I86" s="2">
-        <v>0</v>
-      </c>
-      <c r="J86" t="str">
+      <c r="F86" s="1">
+        <v>0</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0</v>
+      </c>
+      <c r="H86" s="3">
+        <v>0</v>
+      </c>
+      <c r="I86" s="3">
+        <v>0</v>
+      </c>
+      <c r="J86" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L86" t="b">
+      <c r="L86" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" t="str">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Jo Singh</v>
       </c>
-      <c r="B87" t="str">
+      <c r="B87" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2022-10-13 00:00:00</v>
       </c>
-      <c r="C87" t="str">
+      <c r="C87" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>Test 1</v>
       </c>
-      <c r="D87" t="str">
+      <c r="D87" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v>1 Day Labour Rate</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F87">
-        <v>0</v>
-      </c>
-      <c r="G87">
-        <v>0</v>
-      </c>
-      <c r="H87" s="2">
-        <v>0</v>
-      </c>
-      <c r="I87" s="2">
-        <v>0</v>
-      </c>
-      <c r="J87" t="str">
+      <c r="F87" s="1">
+        <v>0</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0</v>
+      </c>
+      <c r="H87" s="3">
+        <v>0</v>
+      </c>
+      <c r="I87" s="3">
+        <v>0</v>
+      </c>
+      <c r="J87" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L87" t="b">
+      <c r="L87" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" t="str">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Jo Singh</v>
       </c>
-      <c r="B88" t="str">
+      <c r="B88" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2022-10-14 00:00:00</v>
       </c>
-      <c r="C88" t="str">
+      <c r="C88" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>Fischbein</v>
       </c>
-      <c r="D88" t="str">
+      <c r="D88" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v>General Materials</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>0.12</v>
       </c>
-      <c r="F88">
-        <v>0</v>
-      </c>
-      <c r="G88">
-        <v>0</v>
-      </c>
-      <c r="H88" s="2">
-        <v>0</v>
-      </c>
-      <c r="I88" s="2">
-        <v>0</v>
-      </c>
-      <c r="J88" t="str">
+      <c r="F88" s="1">
+        <v>0</v>
+      </c>
+      <c r="G88" s="1">
+        <v>0</v>
+      </c>
+      <c r="H88" s="3">
+        <v>0</v>
+      </c>
+      <c r="I88" s="3">
+        <v>0</v>
+      </c>
+      <c r="J88" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L88" t="b">
+      <c r="L88" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" t="str">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>John Citizen</v>
       </c>
-      <c r="B89" t="str">
+      <c r="B89" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2008-10-09 15:38:18</v>
       </c>
-      <c r="C89" t="str">
+      <c r="C89" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>Jones</v>
       </c>
-      <c r="D89" t="str">
+      <c r="D89" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v/>
       </c>
-      <c r="E89">
+      <c r="E89" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>5</v>
       </c>
-      <c r="F89">
-        <v>0</v>
-      </c>
-      <c r="G89">
-        <v>0</v>
-      </c>
-      <c r="H89" s="2">
-        <v>0</v>
-      </c>
-      <c r="I89" s="2">
-        <v>0</v>
-      </c>
-      <c r="J89" t="str">
+      <c r="F89" s="1">
+        <v>0</v>
+      </c>
+      <c r="G89" s="1">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L89" t="b">
+      <c r="L89" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" t="str">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>John Citizen</v>
       </c>
-      <c r="B90" t="str">
+      <c r="B90" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2010-03-16 00:00:00</v>
       </c>
-      <c r="C90" t="str">
+      <c r="C90" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v/>
       </c>
-      <c r="D90" t="str">
+      <c r="D90" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v/>
       </c>
-      <c r="E90">
+      <c r="E90" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>1</v>
       </c>
-      <c r="F90">
-        <v>0</v>
-      </c>
-      <c r="G90">
-        <v>0</v>
-      </c>
-      <c r="H90" s="2">
-        <v>0</v>
-      </c>
-      <c r="I90" s="2">
-        <v>0</v>
-      </c>
-      <c r="J90" t="str">
+      <c r="F90" s="1">
+        <v>0</v>
+      </c>
+      <c r="G90" s="1">
+        <v>0</v>
+      </c>
+      <c r="H90" s="3">
+        <v>0</v>
+      </c>
+      <c r="I90" s="3">
+        <v>0</v>
+      </c>
+      <c r="J90" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v>From Roster</v>
       </c>
-      <c r="L90" t="b">
+      <c r="L90" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" t="str">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>John Citizen</v>
       </c>
-      <c r="B91" t="str">
+      <c r="B91" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2022-10-06 00:00:00</v>
       </c>
-      <c r="C91" t="str">
+      <c r="C91" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v/>
       </c>
-      <c r="D91" t="str">
+      <c r="D91" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v/>
       </c>
-      <c r="E91">
+      <c r="E91" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>1</v>
       </c>
-      <c r="F91">
-        <v>0</v>
-      </c>
-      <c r="G91">
-        <v>0</v>
-      </c>
-      <c r="H91" s="2">
-        <v>0</v>
-      </c>
-      <c r="I91" s="2">
-        <v>0</v>
-      </c>
-      <c r="J91" t="str">
+      <c r="F91" s="1">
+        <v>0</v>
+      </c>
+      <c r="G91" s="1">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L91" t="b">
+      <c r="L91" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" t="str">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>John Citizen</v>
       </c>
-      <c r="B92" t="str">
+      <c r="B92" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2022-10-07 00:00:00</v>
       </c>
-      <c r="C92" t="str">
+      <c r="C92" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v/>
       </c>
-      <c r="D92" t="str">
+      <c r="D92" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v/>
       </c>
-      <c r="E92">
+      <c r="E92" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>1</v>
       </c>
-      <c r="F92">
-        <v>0</v>
-      </c>
-      <c r="G92">
-        <v>0</v>
-      </c>
-      <c r="H92" s="2">
-        <v>0</v>
-      </c>
-      <c r="I92" s="2">
-        <v>0</v>
-      </c>
-      <c r="J92" t="str">
+      <c r="F92" s="1">
+        <v>0</v>
+      </c>
+      <c r="G92" s="1">
+        <v>0</v>
+      </c>
+      <c r="H92" s="3">
+        <v>0</v>
+      </c>
+      <c r="I92" s="3">
+        <v>0</v>
+      </c>
+      <c r="J92" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L92" t="b">
+      <c r="L92" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" t="str">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>John Citizen</v>
       </c>
-      <c r="B93" t="str">
+      <c r="B93" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2022-10-07 00:00:00</v>
       </c>
-      <c r="C93" t="str">
+      <c r="C93" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v/>
       </c>
-      <c r="D93" t="str">
+      <c r="D93" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v/>
       </c>
-      <c r="E93">
+      <c r="E93" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>1</v>
       </c>
-      <c r="F93">
-        <v>0</v>
-      </c>
-      <c r="G93">
-        <v>0</v>
-      </c>
-      <c r="H93" s="2">
-        <v>0</v>
-      </c>
-      <c r="I93" s="2">
-        <v>0</v>
-      </c>
-      <c r="J93" t="str">
+      <c r="F93" s="1">
+        <v>0</v>
+      </c>
+      <c r="G93" s="1">
+        <v>0</v>
+      </c>
+      <c r="H93" s="3">
+        <v>0</v>
+      </c>
+      <c r="I93" s="3">
+        <v>0</v>
+      </c>
+      <c r="J93" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L93" t="b">
+      <c r="L93" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" t="str">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>John Smith</v>
       </c>
-      <c r="B94" t="str">
+      <c r="B94" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2022-10-12 00:00:00</v>
       </c>
-      <c r="C94" t="str">
+      <c r="C94" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v/>
       </c>
-      <c r="D94" t="str">
+      <c r="D94" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v/>
       </c>
-      <c r="E94">
+      <c r="E94" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>1</v>
       </c>
-      <c r="F94">
-        <v>0</v>
-      </c>
-      <c r="G94">
-        <v>0</v>
-      </c>
-      <c r="H94" s="2">
-        <v>0</v>
-      </c>
-      <c r="I94" s="2">
-        <v>0</v>
-      </c>
-      <c r="J94" t="str">
+      <c r="F94" s="1">
+        <v>0</v>
+      </c>
+      <c r="G94" s="1">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L94" t="b">
+      <c r="L94" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" t="str">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Jolly Rodger</v>
       </c>
-      <c r="B95" t="str">
+      <c r="B95" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2011-04-14 00:00:00</v>
       </c>
-      <c r="C95" t="str">
+      <c r="C95" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>Van Den Berg</v>
       </c>
-      <c r="D95" t="str">
+      <c r="D95" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v/>
       </c>
-      <c r="E95">
+      <c r="E95" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>6</v>
       </c>
-      <c r="F95">
-        <v>0</v>
-      </c>
-      <c r="G95">
-        <v>0</v>
-      </c>
-      <c r="H95" s="2">
-        <v>0</v>
-      </c>
-      <c r="I95" s="2">
-        <v>0</v>
-      </c>
-      <c r="J95" t="str">
+      <c r="F95" s="1">
+        <v>0</v>
+      </c>
+      <c r="G95" s="1">
+        <v>0</v>
+      </c>
+      <c r="H95" s="3">
+        <v>0</v>
+      </c>
+      <c r="I95" s="3">
+        <v>0</v>
+      </c>
+      <c r="J95" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L95" t="b">
+      <c r="L95" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" t="str">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Josef Steyn</v>
       </c>
-      <c r="B96" t="str">
+      <c r="B96" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2022-06-14 00:00:00</v>
       </c>
-      <c r="C96" t="str">
+      <c r="C96" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>ABC company^Repair No 45</v>
       </c>
-      <c r="D96" t="str">
+      <c r="D96" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v>Bank Fees</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>85.7333</v>
       </c>
-      <c r="F96">
-        <v>0</v>
-      </c>
-      <c r="G96">
-        <v>0</v>
-      </c>
-      <c r="H96" s="2">
-        <v>0</v>
-      </c>
-      <c r="I96" s="2">
-        <v>0</v>
-      </c>
-      <c r="J96" t="str">
+      <c r="F96" s="1">
+        <v>0</v>
+      </c>
+      <c r="G96" s="1">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L96" t="b">
+      <c r="L96" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" t="str">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Josef Steyn</v>
       </c>
-      <c r="B97" t="str">
+      <c r="B97" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2022-06-14 00:00:00</v>
       </c>
-      <c r="C97" t="str">
+      <c r="C97" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>ABC^Repair No 40</v>
       </c>
-      <c r="D97" t="str">
+      <c r="D97" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v>Dishonoured Chq</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>85.933300000000003</v>
       </c>
-      <c r="F97">
-        <v>0</v>
-      </c>
-      <c r="G97">
-        <v>0</v>
-      </c>
-      <c r="H97" s="2">
-        <v>0</v>
-      </c>
-      <c r="I97" s="2">
-        <v>0</v>
-      </c>
-      <c r="J97" t="str">
+      <c r="F97" s="1">
+        <v>0</v>
+      </c>
+      <c r="G97" s="1">
+        <v>0</v>
+      </c>
+      <c r="H97" s="3">
+        <v>0</v>
+      </c>
+      <c r="I97" s="3">
+        <v>0</v>
+      </c>
+      <c r="J97" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L97" t="b">
+      <c r="L97" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" t="str">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Josef Steyn</v>
       </c>
-      <c r="B98" t="str">
+      <c r="B98" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2022-06-14 00:00:00</v>
       </c>
-      <c r="C98" t="str">
+      <c r="C98" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>ABC^Repair No 40</v>
       </c>
-      <c r="D98" t="str">
+      <c r="D98" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v>Dishonoured Chq</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>85.7667</v>
       </c>
-      <c r="F98">
-        <v>0</v>
-      </c>
-      <c r="G98">
-        <v>0</v>
-      </c>
-      <c r="H98" s="2">
-        <v>0</v>
-      </c>
-      <c r="I98" s="2">
-        <v>0</v>
-      </c>
-      <c r="J98" t="str">
+      <c r="F98" s="1">
+        <v>0</v>
+      </c>
+      <c r="G98" s="1">
+        <v>0</v>
+      </c>
+      <c r="H98" s="3">
+        <v>0</v>
+      </c>
+      <c r="I98" s="3">
+        <v>0</v>
+      </c>
+      <c r="J98" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L98" t="b">
+      <c r="L98" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" t="str">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Josef Steyn</v>
       </c>
-      <c r="B99" t="str">
+      <c r="B99" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2022-06-14 00:00:00</v>
       </c>
-      <c r="C99" t="str">
+      <c r="C99" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>ABC company^Repair No 45</v>
       </c>
-      <c r="D99" t="str">
+      <c r="D99" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v>Bank Fees</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>85.65</v>
       </c>
-      <c r="F99">
-        <v>0</v>
-      </c>
-      <c r="G99">
-        <v>0</v>
-      </c>
-      <c r="H99" s="2">
-        <v>0</v>
-      </c>
-      <c r="I99" s="2">
-        <v>0</v>
-      </c>
-      <c r="J99" t="str">
+      <c r="F99" s="1">
+        <v>0</v>
+      </c>
+      <c r="G99" s="1">
+        <v>0</v>
+      </c>
+      <c r="H99" s="3">
+        <v>0</v>
+      </c>
+      <c r="I99" s="3">
+        <v>0</v>
+      </c>
+      <c r="J99" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L99" t="b">
+      <c r="L99" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" t="str">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Josef Steyn</v>
       </c>
-      <c r="B100" t="str">
+      <c r="B100" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2022-07-21 00:00:00</v>
       </c>
-      <c r="C100" t="str">
+      <c r="C100" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>ABC^Repair No 40</v>
       </c>
-      <c r="D100" t="str">
+      <c r="D100" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v>General Materials</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>6.8333000000000004</v>
       </c>
-      <c r="F100">
-        <v>0</v>
-      </c>
-      <c r="G100">
-        <v>0</v>
-      </c>
-      <c r="H100" s="2">
-        <v>0</v>
-      </c>
-      <c r="I100" s="2">
-        <v>0</v>
-      </c>
-      <c r="J100" t="str">
+      <c r="F100" s="1">
+        <v>0</v>
+      </c>
+      <c r="G100" s="1">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L100" t="b">
+      <c r="L100" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" t="str">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Josef Steyn</v>
       </c>
-      <c r="B101" t="str">
+      <c r="B101" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2022-08-18 00:00:00</v>
       </c>
-      <c r="C101" t="str">
+      <c r="C101" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>ABC^Repair No 40</v>
       </c>
-      <c r="D101" t="str">
+      <c r="D101" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v>Freight</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>9</v>
       </c>
-      <c r="F101">
-        <v>0</v>
-      </c>
-      <c r="G101">
-        <v>0</v>
-      </c>
-      <c r="H101" s="2">
-        <v>0</v>
-      </c>
-      <c r="I101" s="2">
-        <v>0</v>
-      </c>
-      <c r="J101" t="str">
+      <c r="F101" s="1">
+        <v>0</v>
+      </c>
+      <c r="G101" s="1">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L101" t="b">
+      <c r="L101" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" t="str">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Josef Steyn</v>
       </c>
-      <c r="B102" t="str">
+      <c r="B102" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>1970-01-01 00:00:00</v>
       </c>
-      <c r="C102" t="str">
+      <c r="C102" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>ABC company^Repair No 45</v>
       </c>
-      <c r="D102" t="str">
+      <c r="D102" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v>1 Day Labour Rate</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>8</v>
       </c>
-      <c r="F102">
-        <v>0</v>
-      </c>
-      <c r="G102">
-        <v>0</v>
-      </c>
-      <c r="H102" s="2">
-        <v>0</v>
-      </c>
-      <c r="I102" s="2">
-        <v>0</v>
-      </c>
-      <c r="J102" t="str">
+      <c r="F102" s="1">
+        <v>0</v>
+      </c>
+      <c r="G102" s="1">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L102" t="b">
+      <c r="L102" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" t="str">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Josef Steyn</v>
       </c>
-      <c r="B103" t="str">
+      <c r="B103" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2022-08-18 00:00:00</v>
       </c>
-      <c r="C103" t="str">
+      <c r="C103" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>4X4 World^123</v>
       </c>
-      <c r="D103" t="str">
+      <c r="D103" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v>1 Day Labour Rate</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>8</v>
       </c>
-      <c r="F103">
-        <v>0</v>
-      </c>
-      <c r="G103">
-        <v>0</v>
-      </c>
-      <c r="H103" s="2">
-        <v>0</v>
-      </c>
-      <c r="I103" s="2">
-        <v>0</v>
-      </c>
-      <c r="J103" t="str">
+      <c r="F103" s="1">
+        <v>0</v>
+      </c>
+      <c r="G103" s="1">
+        <v>0</v>
+      </c>
+      <c r="H103" s="3">
+        <v>0</v>
+      </c>
+      <c r="I103" s="3">
+        <v>0</v>
+      </c>
+      <c r="J103" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L103" t="b">
+      <c r="L103" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" t="str">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Josef Steyn</v>
       </c>
-      <c r="B104" t="str">
+      <c r="B104" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2022-09-09 00:00:00</v>
       </c>
-      <c r="C104" t="str">
+      <c r="C104" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>7-Eleven</v>
       </c>
-      <c r="D104" t="str">
+      <c r="D104" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v>TNT Freight Charges</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>1</v>
       </c>
-      <c r="F104">
-        <v>0</v>
-      </c>
-      <c r="G104">
-        <v>0</v>
-      </c>
-      <c r="H104" s="2">
-        <v>0</v>
-      </c>
-      <c r="I104" s="2">
-        <v>0</v>
-      </c>
-      <c r="J104" t="str">
+      <c r="F104" s="1">
+        <v>0</v>
+      </c>
+      <c r="G104" s="1">
+        <v>0</v>
+      </c>
+      <c r="H104" s="3">
+        <v>0</v>
+      </c>
+      <c r="I104" s="3">
+        <v>0</v>
+      </c>
+      <c r="J104" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L104" t="b">
+      <c r="L104" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" t="str">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Josef Steyn</v>
       </c>
-      <c r="B105" t="str">
+      <c r="B105" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2022-09-09 00:00:00</v>
       </c>
-      <c r="C105" t="str">
+      <c r="C105" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>Binny Company</v>
       </c>
-      <c r="D105" t="str">
+      <c r="D105" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v>TNT Freight Charges</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>1</v>
       </c>
-      <c r="F105">
-        <v>0</v>
-      </c>
-      <c r="G105">
-        <v>0</v>
-      </c>
-      <c r="H105" s="2">
-        <v>0</v>
-      </c>
-      <c r="I105" s="2">
-        <v>0</v>
-      </c>
-      <c r="J105" t="str">
+      <c r="F105" s="1">
+        <v>0</v>
+      </c>
+      <c r="G105" s="1">
+        <v>0</v>
+      </c>
+      <c r="H105" s="3">
+        <v>0</v>
+      </c>
+      <c r="I105" s="3">
+        <v>0</v>
+      </c>
+      <c r="J105" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L105" t="b">
+      <c r="L105" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" t="str">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Josef Steyn</v>
       </c>
-      <c r="B106" t="str">
+      <c r="B106" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2022-09-09 00:00:00</v>
       </c>
-      <c r="C106" t="str">
+      <c r="C106" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>Chewy</v>
       </c>
-      <c r="D106" t="str">
+      <c r="D106" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v>Freight</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>1</v>
       </c>
-      <c r="F106">
-        <v>0</v>
-      </c>
-      <c r="G106">
-        <v>0</v>
-      </c>
-      <c r="H106" s="2">
-        <v>0</v>
-      </c>
-      <c r="I106" s="2">
-        <v>0</v>
-      </c>
-      <c r="J106" t="str">
+      <c r="F106" s="1">
+        <v>0</v>
+      </c>
+      <c r="G106" s="1">
+        <v>0</v>
+      </c>
+      <c r="H106" s="3">
+        <v>0</v>
+      </c>
+      <c r="I106" s="3">
+        <v>0</v>
+      </c>
+      <c r="J106" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L106" t="b">
+      <c r="L106" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" t="str">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Josef Steyn</v>
       </c>
-      <c r="B107" t="str">
+      <c r="B107" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2022-10-04 00:00:00</v>
       </c>
-      <c r="C107" t="str">
+      <c r="C107" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>John Henry^KItchen</v>
       </c>
-      <c r="D107" t="str">
+      <c r="D107" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v/>
       </c>
-      <c r="E107">
+      <c r="E107" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>1.67E-2</v>
       </c>
-      <c r="F107">
-        <v>0</v>
-      </c>
-      <c r="G107">
-        <v>0</v>
-      </c>
-      <c r="H107" s="2">
-        <v>0</v>
-      </c>
-      <c r="I107" s="2">
-        <v>0</v>
-      </c>
-      <c r="J107" t="str">
+      <c r="F107" s="1">
+        <v>0</v>
+      </c>
+      <c r="G107" s="1">
+        <v>0</v>
+      </c>
+      <c r="H107" s="3">
+        <v>0</v>
+      </c>
+      <c r="I107" s="3">
+        <v>0</v>
+      </c>
+      <c r="J107" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v>Call with Aakash</v>
       </c>
-      <c r="L107" t="b">
+      <c r="L107" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" t="str">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Josef Steyn</v>
       </c>
-      <c r="B108" t="str">
+      <c r="B108" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2022-10-13 00:00:00</v>
       </c>
-      <c r="C108" t="str">
+      <c r="C108" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>TrueERP Sample Company</v>
       </c>
-      <c r="D108" t="str">
+      <c r="D108" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v>1 Day Labour Rate</v>
       </c>
-      <c r="E108">
+      <c r="E108" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>1.67E-2</v>
       </c>
-      <c r="F108">
-        <v>0</v>
-      </c>
-      <c r="G108">
-        <v>0</v>
-      </c>
-      <c r="H108" s="2">
-        <v>0</v>
-      </c>
-      <c r="I108" s="2">
-        <v>0</v>
-      </c>
-      <c r="J108" t="str">
+      <c r="F108" s="1">
+        <v>0</v>
+      </c>
+      <c r="G108" s="1">
+        <v>0</v>
+      </c>
+      <c r="H108" s="3">
+        <v>0</v>
+      </c>
+      <c r="I108" s="3">
+        <v>0</v>
+      </c>
+      <c r="J108" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L108" t="b">
+      <c r="L108" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" t="str">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Josef Steyn</v>
       </c>
-      <c r="B109" t="str">
+      <c r="B109" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2022-11-08 00:00:00</v>
       </c>
-      <c r="C109" t="str">
+      <c r="C109" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>Niki Customer</v>
       </c>
-      <c r="D109" t="str">
+      <c r="D109" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v>1 Day Labour Rate</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>3.3</v>
       </c>
-      <c r="F109">
-        <v>0</v>
-      </c>
-      <c r="G109">
-        <v>0</v>
-      </c>
-      <c r="H109" s="2">
-        <v>0</v>
-      </c>
-      <c r="I109" s="2">
-        <v>0</v>
-      </c>
-      <c r="J109" t="str">
+      <c r="F109" s="1">
+        <v>0</v>
+      </c>
+      <c r="G109" s="1">
+        <v>0</v>
+      </c>
+      <c r="H109" s="3">
+        <v>0</v>
+      </c>
+      <c r="I109" s="3">
+        <v>0</v>
+      </c>
+      <c r="J109" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L109" t="b">
+      <c r="L109" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" t="str">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Josef Steyn</v>
       </c>
-      <c r="B110" t="str">
+      <c r="B110" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2022-11-08 00:00:00</v>
       </c>
-      <c r="C110" t="str">
+      <c r="C110" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v/>
       </c>
-      <c r="D110" t="str">
+      <c r="D110" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v/>
       </c>
-      <c r="E110">
+      <c r="E110" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>1.67E-2</v>
       </c>
-      <c r="F110">
-        <v>0</v>
-      </c>
-      <c r="G110">
-        <v>0</v>
-      </c>
-      <c r="H110" s="2">
-        <v>0</v>
-      </c>
-      <c r="I110" s="2">
-        <v>0</v>
-      </c>
-      <c r="J110" t="str">
+      <c r="F110" s="1">
+        <v>0</v>
+      </c>
+      <c r="G110" s="1">
+        <v>0</v>
+      </c>
+      <c r="H110" s="3">
+        <v>0</v>
+      </c>
+      <c r="I110" s="3">
+        <v>0</v>
+      </c>
+      <c r="J110" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L110" t="b">
+      <c r="L110" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" t="str">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Josef Steyn</v>
       </c>
-      <c r="B111" t="str">
+      <c r="B111" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2022-11-18 00:00:00</v>
       </c>
-      <c r="C111" t="str">
+      <c r="C111" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>Binny Company</v>
       </c>
-      <c r="D111" t="str">
+      <c r="D111" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v>TNT Freight Charges</v>
       </c>
-      <c r="E111">
+      <c r="E111" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>3.5</v>
       </c>
-      <c r="F111">
-        <v>0</v>
-      </c>
-      <c r="G111">
-        <v>0</v>
-      </c>
-      <c r="H111" s="2">
-        <v>0</v>
-      </c>
-      <c r="I111" s="2">
-        <v>0</v>
-      </c>
-      <c r="J111" t="str">
+      <c r="F111" s="1">
+        <v>0</v>
+      </c>
+      <c r="G111" s="1">
+        <v>0</v>
+      </c>
+      <c r="H111" s="3">
+        <v>0</v>
+      </c>
+      <c r="I111" s="3">
+        <v>0</v>
+      </c>
+      <c r="J111" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L111" t="b">
+      <c r="L111" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" t="str">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Josef Steyn</v>
       </c>
-      <c r="B112" t="str">
+      <c r="B112" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2022-11-18 00:00:00</v>
       </c>
-      <c r="C112" t="str">
+      <c r="C112" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>Test 2</v>
       </c>
-      <c r="D112" t="str">
+      <c r="D112" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v>TNT Freight Charges</v>
       </c>
-      <c r="E112">
+      <c r="E112" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>1</v>
       </c>
-      <c r="F112">
-        <v>0</v>
-      </c>
-      <c r="G112">
-        <v>0</v>
-      </c>
-      <c r="H112" s="2">
-        <v>0</v>
-      </c>
-      <c r="I112" s="2">
-        <v>0</v>
-      </c>
-      <c r="J112" t="str">
+      <c r="F112" s="1">
+        <v>0</v>
+      </c>
+      <c r="G112" s="1">
+        <v>0</v>
+      </c>
+      <c r="H112" s="3">
+        <v>0</v>
+      </c>
+      <c r="I112" s="3">
+        <v>0</v>
+      </c>
+      <c r="J112" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L112" t="b">
+      <c r="L112" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" t="str">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Josef Steyn</v>
       </c>
-      <c r="B113" t="str">
+      <c r="B113" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2022-11-19 00:00:00</v>
       </c>
-      <c r="C113" t="str">
+      <c r="C113" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v>Joes Cars</v>
       </c>
-      <c r="D113" t="str">
+      <c r="D113" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v>TNT Freight Charges</v>
       </c>
-      <c r="E113">
+      <c r="E113" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>0.03</v>
       </c>
-      <c r="F113">
-        <v>0</v>
-      </c>
-      <c r="G113">
-        <v>0</v>
-      </c>
-      <c r="H113" s="2">
-        <v>0</v>
-      </c>
-      <c r="I113" s="2">
-        <v>0</v>
-      </c>
-      <c r="J113" t="str">
+      <c r="F113" s="1">
+        <v>0</v>
+      </c>
+      <c r="G113" s="1">
+        <v>0</v>
+      </c>
+      <c r="H113" s="3">
+        <v>0</v>
+      </c>
+      <c r="I113" s="3">
+        <v>0</v>
+      </c>
+      <c r="J113" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L113" t="b">
+      <c r="L113" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" t="str">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.EmployeeName]]</f>
         <v>Maureen Poppins</v>
       </c>
-      <c r="B114" t="str">
+      <c r="B114" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.TimeSheetDate]]</f>
         <v>2022-10-13 00:00:00</v>
       </c>
-      <c r="C114" t="str">
+      <c r="C114" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Job]]</f>
         <v/>
       </c>
-      <c r="D114" t="str">
+      <c r="D114" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.ServiceName]]</f>
         <v/>
       </c>
-      <c r="E114">
+      <c r="E114" s="1">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Hours]]</f>
         <v>1</v>
       </c>
-      <c r="F114">
-        <v>0</v>
-      </c>
-      <c r="G114">
-        <v>0</v>
-      </c>
-      <c r="H114" s="2">
-        <v>0</v>
-      </c>
-      <c r="I114" s="2">
-        <v>0</v>
-      </c>
-      <c r="J114" t="str">
+      <c r="F114" s="1">
+        <v>0</v>
+      </c>
+      <c r="G114" s="1">
+        <v>0</v>
+      </c>
+      <c r="H114" s="3">
+        <v>0</v>
+      </c>
+      <c r="I114" s="3">
+        <v>0</v>
+      </c>
+      <c r="J114" s="1" t="str">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Notes]]</f>
         <v/>
       </c>
-      <c r="L114" t="b">
+      <c r="L114" s="1" t="b">
         <f>TTimeSheet_ListType_Detail_select__5BActive_5D_3Dtrue[[#This Row],[T.Approved]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H115" s="2"/>
-      <c r="I115" s="2"/>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H116" s="2"/>
-      <c r="I116" s="2"/>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H117" s="2"/>
-      <c r="I117" s="2"/>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H118" s="2"/>
-      <c r="I118" s="2"/>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H119" s="2"/>
-      <c r="I119" s="2"/>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H120" s="2"/>
-      <c r="I120" s="2"/>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H121" s="2"/>
-      <c r="I121" s="2"/>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H122" s="2"/>
-      <c r="I122" s="2"/>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H123" s="2"/>
-      <c r="I123" s="2"/>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H124" s="2"/>
-      <c r="I124" s="2"/>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H125" s="2"/>
-      <c r="I125" s="2"/>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H126" s="2"/>
-      <c r="I126" s="2"/>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H127" s="2"/>
-      <c r="I127" s="2"/>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H128" s="2"/>
-      <c r="I128" s="2"/>
-    </row>
-    <row r="129" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H129" s="2"/>
-      <c r="I129" s="2"/>
-    </row>
-    <row r="130" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H130" s="2"/>
-      <c r="I130" s="2"/>
-    </row>
-    <row r="131" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H131" s="2"/>
-      <c r="I131" s="2"/>
-    </row>
-    <row r="132" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H132" s="2"/>
-      <c r="I132" s="2"/>
-    </row>
-    <row r="133" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H133" s="2"/>
-      <c r="I133" s="2"/>
-    </row>
-    <row r="134" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H134" s="2"/>
-      <c r="I134" s="2"/>
-    </row>
-    <row r="135" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H135" s="2"/>
-      <c r="I135" s="2"/>
-    </row>
-    <row r="136" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H136" s="2"/>
-      <c r="I136" s="2"/>
-    </row>
-    <row r="137" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H137" s="2"/>
-      <c r="I137" s="2"/>
-    </row>
-    <row r="138" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H138" s="2"/>
-      <c r="I138" s="2"/>
-    </row>
-    <row r="139" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H139" s="2"/>
-      <c r="I139" s="2"/>
-    </row>
-    <row r="140" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H140" s="2"/>
-      <c r="I140" s="2"/>
-    </row>
-    <row r="141" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H141" s="2"/>
-      <c r="I141" s="2"/>
-    </row>
-    <row r="142" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H142" s="2"/>
-      <c r="I142" s="2"/>
-    </row>
-    <row r="143" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H143" s="2"/>
-      <c r="I143" s="2"/>
-    </row>
-    <row r="144" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H144" s="2"/>
-      <c r="I144" s="2"/>
-    </row>
-    <row r="145" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H145" s="2"/>
-      <c r="I145" s="2"/>
-    </row>
-    <row r="146" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H146" s="2"/>
-      <c r="I146" s="2"/>
-    </row>
-    <row r="147" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H147" s="2"/>
-      <c r="I147" s="2"/>
-    </row>
-    <row r="148" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H148" s="2"/>
-      <c r="I148" s="2"/>
-    </row>
-    <row r="149" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H149" s="2"/>
-      <c r="I149" s="2"/>
-    </row>
-    <row r="150" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H150" s="2"/>
-      <c r="I150" s="2"/>
-    </row>
-    <row r="151" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H151" s="2"/>
-      <c r="I151" s="2"/>
-    </row>
-    <row r="152" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H152" s="2"/>
-      <c r="I152" s="2"/>
-    </row>
-    <row r="153" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H153" s="2"/>
-      <c r="I153" s="2"/>
-    </row>
-    <row r="154" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H154" s="2"/>
-      <c r="I154" s="2"/>
-    </row>
-    <row r="155" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H155" s="2"/>
-      <c r="I155" s="2"/>
-    </row>
-    <row r="156" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H156" s="2"/>
-      <c r="I156" s="2"/>
-    </row>
-    <row r="157" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H157" s="2"/>
-      <c r="I157" s="2"/>
-    </row>
-    <row r="158" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H158" s="2"/>
-      <c r="I158" s="2"/>
-    </row>
-    <row r="159" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H159" s="2"/>
-      <c r="I159" s="2"/>
-    </row>
-    <row r="160" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H160" s="2"/>
-      <c r="I160" s="2"/>
-    </row>
-    <row r="161" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H161" s="2"/>
-      <c r="I161" s="2"/>
-    </row>
-    <row r="162" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H162" s="2"/>
-      <c r="I162" s="2"/>
-    </row>
-    <row r="163" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H163" s="2"/>
-      <c r="I163" s="2"/>
-    </row>
-    <row r="164" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H164" s="2"/>
-      <c r="I164" s="2"/>
-    </row>
-    <row r="165" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H165" s="2"/>
-      <c r="I165" s="2"/>
-    </row>
-    <row r="166" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H166" s="2"/>
-      <c r="I166" s="2"/>
-    </row>
-    <row r="167" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H167" s="2"/>
-      <c r="I167" s="2"/>
-    </row>
-    <row r="168" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H168" s="2"/>
-      <c r="I168" s="2"/>
-    </row>
-    <row r="169" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H169" s="2"/>
-      <c r="I169" s="2"/>
-    </row>
-    <row r="170" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H170" s="2"/>
-      <c r="I170" s="2"/>
-    </row>
-    <row r="171" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H171" s="2"/>
-      <c r="I171" s="2"/>
-    </row>
-    <row r="172" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H172" s="2"/>
-      <c r="I172" s="2"/>
-    </row>
-    <row r="173" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H173" s="2"/>
-      <c r="I173" s="2"/>
-    </row>
-    <row r="174" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H174" s="2"/>
-      <c r="I174" s="2"/>
-    </row>
-    <row r="175" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H175" s="2"/>
-      <c r="I175" s="2"/>
-    </row>
-    <row r="176" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H176" s="2"/>
-      <c r="I176" s="2"/>
-    </row>
-    <row r="177" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H177" s="2"/>
-      <c r="I177" s="2"/>
-    </row>
-    <row r="178" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H178" s="2"/>
-      <c r="I178" s="2"/>
-    </row>
-    <row r="179" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H179" s="2"/>
-      <c r="I179" s="2"/>
-    </row>
-    <row r="180" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H180" s="2"/>
-      <c r="I180" s="2"/>
-    </row>
-    <row r="181" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H181" s="2"/>
-      <c r="I181" s="2"/>
-    </row>
-    <row r="182" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H182" s="2"/>
-      <c r="I182" s="2"/>
-    </row>
-    <row r="183" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H183" s="2"/>
-      <c r="I183" s="2"/>
-    </row>
-    <row r="184" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H184" s="2"/>
-      <c r="I184" s="2"/>
-    </row>
-    <row r="185" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H185" s="2"/>
-      <c r="I185" s="2"/>
-    </row>
-    <row r="186" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H186" s="2"/>
-      <c r="I186" s="2"/>
-    </row>
-    <row r="187" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H187" s="2"/>
-      <c r="I187" s="2"/>
-    </row>
-    <row r="188" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H188" s="2"/>
-      <c r="I188" s="2"/>
-    </row>
-    <row r="189" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H189" s="2"/>
-      <c r="I189" s="2"/>
-    </row>
-    <row r="190" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H190" s="2"/>
-      <c r="I190" s="2"/>
-    </row>
-    <row r="191" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H191" s="2"/>
-      <c r="I191" s="2"/>
-    </row>
-    <row r="192" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H192" s="2"/>
-      <c r="I192" s="2"/>
-    </row>
-    <row r="193" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H193" s="2"/>
-      <c r="I193" s="2"/>
-    </row>
-    <row r="194" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H194" s="2"/>
-      <c r="I194" s="2"/>
-    </row>
-    <row r="195" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H195" s="2"/>
-      <c r="I195" s="2"/>
-    </row>
-    <row r="196" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H196" s="2"/>
-      <c r="I196" s="2"/>
-    </row>
-    <row r="197" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H197" s="2"/>
-      <c r="I197" s="2"/>
-    </row>
-    <row r="198" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H198" s="2"/>
-      <c r="I198" s="2"/>
-    </row>
-    <row r="199" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H199" s="2"/>
-      <c r="I199" s="2"/>
-    </row>
-    <row r="200" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H200" s="2"/>
-      <c r="I200" s="2"/>
-    </row>
-    <row r="201" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H201" s="2"/>
-      <c r="I201" s="2"/>
-    </row>
-    <row r="202" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H202" s="2"/>
-      <c r="I202" s="2"/>
-    </row>
-    <row r="203" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H203" s="2"/>
-      <c r="I203" s="2"/>
-    </row>
-    <row r="204" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H204" s="2"/>
-      <c r="I204" s="2"/>
-    </row>
-    <row r="205" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H205" s="2"/>
-      <c r="I205" s="2"/>
-    </row>
-    <row r="206" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H206" s="2"/>
-      <c r="I206" s="2"/>
-    </row>
-    <row r="207" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H207" s="2"/>
-      <c r="I207" s="2"/>
-    </row>
-    <row r="208" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H208" s="2"/>
-      <c r="I208" s="2"/>
-    </row>
-    <row r="209" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H209" s="2"/>
-      <c r="I209" s="2"/>
-    </row>
-    <row r="210" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H210" s="2"/>
-      <c r="I210" s="2"/>
-    </row>
-    <row r="211" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H211" s="2"/>
-      <c r="I211" s="2"/>
-    </row>
-    <row r="212" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H212" s="2"/>
-      <c r="I212" s="2"/>
-    </row>
-    <row r="213" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H213" s="2"/>
-      <c r="I213" s="2"/>
-    </row>
-    <row r="214" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H214" s="2"/>
-      <c r="I214" s="2"/>
-    </row>
-    <row r="215" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H215" s="2"/>
-      <c r="I215" s="2"/>
-    </row>
-    <row r="216" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H216" s="2"/>
-      <c r="I216" s="2"/>
-    </row>
-    <row r="217" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H217" s="2"/>
-      <c r="I217" s="2"/>
-    </row>
-    <row r="218" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H218" s="2"/>
-      <c r="I218" s="2"/>
-    </row>
-    <row r="219" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H219" s="2"/>
-      <c r="I219" s="2"/>
-    </row>
-    <row r="220" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H220" s="2"/>
-      <c r="I220" s="2"/>
-    </row>
-    <row r="221" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H221" s="2"/>
-      <c r="I221" s="2"/>
-    </row>
-    <row r="222" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H222" s="2"/>
-      <c r="I222" s="2"/>
-    </row>
-    <row r="223" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H223" s="2"/>
-      <c r="I223" s="2"/>
-    </row>
-    <row r="224" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H224" s="2"/>
-      <c r="I224" s="2"/>
-    </row>
-    <row r="225" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H225" s="2"/>
-      <c r="I225" s="2"/>
-    </row>
-    <row r="226" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H226" s="2"/>
-      <c r="I226" s="2"/>
-    </row>
-    <row r="227" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H227" s="2"/>
-      <c r="I227" s="2"/>
-    </row>
-    <row r="228" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H228" s="2"/>
-      <c r="I228" s="2"/>
-    </row>
-    <row r="229" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H229" s="2"/>
-      <c r="I229" s="2"/>
-    </row>
-    <row r="230" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H230" s="2"/>
-      <c r="I230" s="2"/>
-    </row>
-    <row r="231" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H231" s="2"/>
-      <c r="I231" s="2"/>
-    </row>
-    <row r="232" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H232" s="2"/>
-      <c r="I232" s="2"/>
-    </row>
-    <row r="233" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H233" s="2"/>
-      <c r="I233" s="2"/>
-    </row>
-    <row r="234" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H234" s="2"/>
-      <c r="I234" s="2"/>
-    </row>
-    <row r="235" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H235" s="2"/>
-      <c r="I235" s="2"/>
-    </row>
-    <row r="236" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H236" s="2"/>
-      <c r="I236" s="2"/>
-    </row>
-    <row r="237" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H237" s="2"/>
-      <c r="I237" s="2"/>
-    </row>
-    <row r="238" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H238" s="2"/>
-      <c r="I238" s="2"/>
-    </row>
-    <row r="239" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H239" s="2"/>
-      <c r="I239" s="2"/>
-    </row>
-    <row r="240" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H240" s="2"/>
-      <c r="I240" s="2"/>
-    </row>
-    <row r="241" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H241" s="2"/>
-      <c r="I241" s="2"/>
-    </row>
-    <row r="242" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H242" s="2"/>
-      <c r="I242" s="2"/>
-    </row>
-    <row r="243" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H243" s="2"/>
-      <c r="I243" s="2"/>
-    </row>
-    <row r="244" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H244" s="2"/>
-      <c r="I244" s="2"/>
-    </row>
-    <row r="245" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H245" s="2"/>
-      <c r="I245" s="2"/>
-    </row>
-    <row r="246" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H246" s="2"/>
-      <c r="I246" s="2"/>
-    </row>
-    <row r="247" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H247" s="2"/>
-      <c r="I247" s="2"/>
-    </row>
-    <row r="248" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H248" s="2"/>
-      <c r="I248" s="2"/>
-    </row>
-    <row r="249" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H249" s="2"/>
-      <c r="I249" s="2"/>
-    </row>
-    <row r="250" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H250" s="2"/>
-      <c r="I250" s="2"/>
-    </row>
-    <row r="251" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H251" s="2"/>
-      <c r="I251" s="2"/>
-    </row>
-    <row r="252" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H252" s="2"/>
-      <c r="I252" s="2"/>
-    </row>
-    <row r="253" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H253" s="2"/>
-      <c r="I253" s="2"/>
-    </row>
-    <row r="254" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H254" s="2"/>
-      <c r="I254" s="2"/>
-    </row>
-    <row r="255" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H255" s="2"/>
-      <c r="I255" s="2"/>
-    </row>
-    <row r="256" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H256" s="2"/>
-      <c r="I256" s="2"/>
-    </row>
-    <row r="257" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H257" s="2"/>
-      <c r="I257" s="2"/>
-    </row>
-    <row r="258" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H258" s="2"/>
-      <c r="I258" s="2"/>
-    </row>
-    <row r="259" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H259" s="2"/>
-      <c r="I259" s="2"/>
-    </row>
-    <row r="260" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H260" s="2"/>
-      <c r="I260" s="2"/>
-    </row>
-    <row r="261" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H261" s="2"/>
-      <c r="I261" s="2"/>
-    </row>
-    <row r="262" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H262" s="2"/>
-      <c r="I262" s="2"/>
-    </row>
-    <row r="263" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H263" s="2"/>
-      <c r="I263" s="2"/>
-    </row>
-    <row r="264" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H264" s="2"/>
-      <c r="I264" s="2"/>
-    </row>
-    <row r="265" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H265" s="2"/>
-      <c r="I265" s="2"/>
-    </row>
-    <row r="266" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H266" s="2"/>
-      <c r="I266" s="2"/>
-    </row>
-    <row r="267" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H267" s="2"/>
-      <c r="I267" s="2"/>
-    </row>
-    <row r="268" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H268" s="2"/>
-      <c r="I268" s="2"/>
-    </row>
-    <row r="269" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H269" s="2"/>
-      <c r="I269" s="2"/>
-    </row>
-    <row r="270" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H270" s="2"/>
-      <c r="I270" s="2"/>
-    </row>
-    <row r="271" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H271" s="2"/>
-      <c r="I271" s="2"/>
-    </row>
-    <row r="272" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H272" s="2"/>
-      <c r="I272" s="2"/>
-    </row>
-    <row r="273" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H273" s="2"/>
-      <c r="I273" s="2"/>
-    </row>
-    <row r="274" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H274" s="2"/>
-      <c r="I274" s="2"/>
-    </row>
-    <row r="275" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H275" s="2"/>
-      <c r="I275" s="2"/>
-    </row>
-    <row r="276" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H276" s="2"/>
-      <c r="I276" s="2"/>
-    </row>
-    <row r="277" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H277" s="2"/>
-      <c r="I277" s="2"/>
-    </row>
-    <row r="278" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H278" s="2"/>
-      <c r="I278" s="2"/>
-    </row>
-    <row r="279" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H279" s="2"/>
-      <c r="I279" s="2"/>
-    </row>
-    <row r="280" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H280" s="2"/>
-      <c r="I280" s="2"/>
-    </row>
-    <row r="281" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H281" s="2"/>
-      <c r="I281" s="2"/>
-    </row>
-    <row r="282" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H282" s="2"/>
-      <c r="I282" s="2"/>
-    </row>
-    <row r="283" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H283" s="2"/>
-      <c r="I283" s="2"/>
-    </row>
-    <row r="284" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H284" s="2"/>
-      <c r="I284" s="2"/>
-    </row>
-    <row r="285" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H285" s="2"/>
-      <c r="I285" s="2"/>
-    </row>
-    <row r="286" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H286" s="2"/>
-      <c r="I286" s="2"/>
-    </row>
-    <row r="287" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H287" s="2"/>
-      <c r="I287" s="2"/>
-    </row>
-    <row r="288" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H288" s="2"/>
-      <c r="I288" s="2"/>
-    </row>
-    <row r="289" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H289" s="2"/>
-      <c r="I289" s="2"/>
-    </row>
-    <row r="290" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H290" s="2"/>
-      <c r="I290" s="2"/>
-    </row>
-    <row r="291" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H291" s="2"/>
-      <c r="I291" s="2"/>
-    </row>
-    <row r="292" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H292" s="2"/>
-      <c r="I292" s="2"/>
-    </row>
-    <row r="293" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H293" s="2"/>
-      <c r="I293" s="2"/>
-    </row>
-    <row r="294" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H294" s="2"/>
-      <c r="I294" s="2"/>
-    </row>
-    <row r="295" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H295" s="2"/>
-      <c r="I295" s="2"/>
-    </row>
-    <row r="296" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H296" s="2"/>
-      <c r="I296" s="2"/>
-    </row>
-    <row r="297" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H297" s="2"/>
-      <c r="I297" s="2"/>
-    </row>
-    <row r="298" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H298" s="2"/>
-      <c r="I298" s="2"/>
-    </row>
-    <row r="299" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H299" s="2"/>
-      <c r="I299" s="2"/>
-    </row>
-    <row r="300" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H300" s="2"/>
-      <c r="I300" s="2"/>
-    </row>
-    <row r="301" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H301" s="2"/>
-      <c r="I301" s="2"/>
-    </row>
-    <row r="302" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H302" s="2"/>
-      <c r="I302" s="2"/>
-    </row>
-    <row r="303" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H303" s="2"/>
-      <c r="I303" s="2"/>
-    </row>
-    <row r="304" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H304" s="2"/>
-      <c r="I304" s="2"/>
-    </row>
-    <row r="305" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H305" s="2"/>
-      <c r="I305" s="2"/>
-    </row>
-    <row r="306" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H306" s="2"/>
-      <c r="I306" s="2"/>
-    </row>
-    <row r="307" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H307" s="2"/>
-      <c r="I307" s="2"/>
-    </row>
-    <row r="308" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H308" s="2"/>
-      <c r="I308" s="2"/>
-    </row>
-    <row r="309" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H309" s="2"/>
-      <c r="I309" s="2"/>
-    </row>
-    <row r="310" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H310" s="2"/>
-      <c r="I310" s="2"/>
-    </row>
-    <row r="311" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H311" s="2"/>
-      <c r="I311" s="2"/>
-    </row>
-    <row r="312" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H312" s="2"/>
-      <c r="I312" s="2"/>
-    </row>
-    <row r="313" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H313" s="2"/>
-      <c r="I313" s="2"/>
-    </row>
-    <row r="314" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H314" s="2"/>
-      <c r="I314" s="2"/>
-    </row>
-    <row r="315" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H315" s="2"/>
-      <c r="I315" s="2"/>
-    </row>
-    <row r="316" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H316" s="2"/>
-      <c r="I316" s="2"/>
-    </row>
-    <row r="317" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H317" s="2"/>
-      <c r="I317" s="2"/>
-    </row>
-    <row r="318" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H318" s="2"/>
-      <c r="I318" s="2"/>
-    </row>
-    <row r="319" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H319" s="2"/>
-      <c r="I319" s="2"/>
-    </row>
-    <row r="320" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H320" s="2"/>
-      <c r="I320" s="2"/>
-    </row>
-    <row r="321" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H321" s="2"/>
-      <c r="I321" s="2"/>
-    </row>
-    <row r="322" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H322" s="2"/>
-      <c r="I322" s="2"/>
-    </row>
-    <row r="323" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H323" s="2"/>
-      <c r="I323" s="2"/>
-    </row>
-    <row r="324" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H324" s="2"/>
-      <c r="I324" s="2"/>
-    </row>
-    <row r="325" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H325" s="2"/>
-      <c r="I325" s="2"/>
-    </row>
-    <row r="326" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H326" s="2"/>
-      <c r="I326" s="2"/>
-    </row>
-    <row r="327" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H327" s="2"/>
-      <c r="I327" s="2"/>
-    </row>
-    <row r="328" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H328" s="2"/>
-      <c r="I328" s="2"/>
-    </row>
-    <row r="329" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H329" s="2"/>
-      <c r="I329" s="2"/>
-    </row>
-    <row r="330" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H330" s="2"/>
-      <c r="I330" s="2"/>
-    </row>
-    <row r="331" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H331" s="2"/>
-      <c r="I331" s="2"/>
-    </row>
-    <row r="332" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H332" s="2"/>
-      <c r="I332" s="2"/>
-    </row>
-    <row r="333" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H333" s="2"/>
-      <c r="I333" s="2"/>
-    </row>
-    <row r="334" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H334" s="2"/>
-      <c r="I334" s="2"/>
-    </row>
-    <row r="335" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H335" s="2"/>
-      <c r="I335" s="2"/>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H115" s="3"/>
+      <c r="I115" s="3"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H116" s="3"/>
+      <c r="I116" s="3"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H117" s="3"/>
+      <c r="I117" s="3"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H118" s="3"/>
+      <c r="I118" s="3"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H119" s="3"/>
+      <c r="I119" s="3"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H120" s="3"/>
+      <c r="I120" s="3"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H121" s="3"/>
+      <c r="I121" s="3"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H122" s="3"/>
+      <c r="I122" s="3"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H123" s="3"/>
+      <c r="I123" s="3"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H124" s="3"/>
+      <c r="I124" s="3"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H125" s="3"/>
+      <c r="I125" s="3"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H126" s="3"/>
+      <c r="I126" s="3"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H127" s="3"/>
+      <c r="I127" s="3"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H128" s="3"/>
+      <c r="I128" s="3"/>
+    </row>
+    <row r="129" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H129" s="3"/>
+      <c r="I129" s="3"/>
+    </row>
+    <row r="130" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H130" s="3"/>
+      <c r="I130" s="3"/>
+    </row>
+    <row r="131" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H131" s="3"/>
+      <c r="I131" s="3"/>
+    </row>
+    <row r="132" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H132" s="3"/>
+      <c r="I132" s="3"/>
+    </row>
+    <row r="133" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H133" s="3"/>
+      <c r="I133" s="3"/>
+    </row>
+    <row r="134" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H134" s="3"/>
+      <c r="I134" s="3"/>
+    </row>
+    <row r="135" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H135" s="3"/>
+      <c r="I135" s="3"/>
+    </row>
+    <row r="136" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H136" s="3"/>
+      <c r="I136" s="3"/>
+    </row>
+    <row r="137" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H137" s="3"/>
+      <c r="I137" s="3"/>
+    </row>
+    <row r="138" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H138" s="3"/>
+      <c r="I138" s="3"/>
+    </row>
+    <row r="139" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H139" s="3"/>
+      <c r="I139" s="3"/>
+    </row>
+    <row r="140" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H140" s="3"/>
+      <c r="I140" s="3"/>
+    </row>
+    <row r="141" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H141" s="3"/>
+      <c r="I141" s="3"/>
+    </row>
+    <row r="142" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H142" s="3"/>
+      <c r="I142" s="3"/>
+    </row>
+    <row r="143" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H143" s="3"/>
+      <c r="I143" s="3"/>
+    </row>
+    <row r="144" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H144" s="3"/>
+      <c r="I144" s="3"/>
+    </row>
+    <row r="145" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H145" s="3"/>
+      <c r="I145" s="3"/>
+    </row>
+    <row r="146" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H146" s="3"/>
+      <c r="I146" s="3"/>
+    </row>
+    <row r="147" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H147" s="3"/>
+      <c r="I147" s="3"/>
+    </row>
+    <row r="148" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H148" s="3"/>
+      <c r="I148" s="3"/>
+    </row>
+    <row r="149" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H149" s="3"/>
+      <c r="I149" s="3"/>
+    </row>
+    <row r="150" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H150" s="3"/>
+      <c r="I150" s="3"/>
+    </row>
+    <row r="151" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H151" s="3"/>
+      <c r="I151" s="3"/>
+    </row>
+    <row r="152" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H152" s="3"/>
+      <c r="I152" s="3"/>
+    </row>
+    <row r="153" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H153" s="3"/>
+      <c r="I153" s="3"/>
+    </row>
+    <row r="154" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H154" s="3"/>
+      <c r="I154" s="3"/>
+    </row>
+    <row r="155" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H155" s="3"/>
+      <c r="I155" s="3"/>
+    </row>
+    <row r="156" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H156" s="3"/>
+      <c r="I156" s="3"/>
+    </row>
+    <row r="157" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H157" s="3"/>
+      <c r="I157" s="3"/>
+    </row>
+    <row r="158" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H158" s="3"/>
+      <c r="I158" s="3"/>
+    </row>
+    <row r="159" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H159" s="3"/>
+      <c r="I159" s="3"/>
+    </row>
+    <row r="160" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H160" s="3"/>
+      <c r="I160" s="3"/>
+    </row>
+    <row r="161" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H161" s="3"/>
+      <c r="I161" s="3"/>
+    </row>
+    <row r="162" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H162" s="3"/>
+      <c r="I162" s="3"/>
+    </row>
+    <row r="163" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H163" s="3"/>
+      <c r="I163" s="3"/>
+    </row>
+    <row r="164" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H164" s="3"/>
+      <c r="I164" s="3"/>
+    </row>
+    <row r="165" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H165" s="3"/>
+      <c r="I165" s="3"/>
+    </row>
+    <row r="166" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H166" s="3"/>
+      <c r="I166" s="3"/>
+    </row>
+    <row r="167" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H167" s="3"/>
+      <c r="I167" s="3"/>
+    </row>
+    <row r="168" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H168" s="3"/>
+      <c r="I168" s="3"/>
+    </row>
+    <row r="169" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H169" s="3"/>
+      <c r="I169" s="3"/>
+    </row>
+    <row r="170" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H170" s="3"/>
+      <c r="I170" s="3"/>
+    </row>
+    <row r="171" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H171" s="3"/>
+      <c r="I171" s="3"/>
+    </row>
+    <row r="172" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H172" s="3"/>
+      <c r="I172" s="3"/>
+    </row>
+    <row r="173" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H173" s="3"/>
+      <c r="I173" s="3"/>
+    </row>
+    <row r="174" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H174" s="3"/>
+      <c r="I174" s="3"/>
+    </row>
+    <row r="175" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H175" s="3"/>
+      <c r="I175" s="3"/>
+    </row>
+    <row r="176" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H176" s="3"/>
+      <c r="I176" s="3"/>
+    </row>
+    <row r="177" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H177" s="3"/>
+      <c r="I177" s="3"/>
+    </row>
+    <row r="178" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H178" s="3"/>
+      <c r="I178" s="3"/>
+    </row>
+    <row r="179" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H179" s="3"/>
+      <c r="I179" s="3"/>
+    </row>
+    <row r="180" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H180" s="3"/>
+      <c r="I180" s="3"/>
+    </row>
+    <row r="181" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H181" s="3"/>
+      <c r="I181" s="3"/>
+    </row>
+    <row r="182" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H182" s="3"/>
+      <c r="I182" s="3"/>
+    </row>
+    <row r="183" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H183" s="3"/>
+      <c r="I183" s="3"/>
+    </row>
+    <row r="184" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H184" s="3"/>
+      <c r="I184" s="3"/>
+    </row>
+    <row r="185" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H185" s="3"/>
+      <c r="I185" s="3"/>
+    </row>
+    <row r="186" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H186" s="3"/>
+      <c r="I186" s="3"/>
+    </row>
+    <row r="187" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H187" s="3"/>
+      <c r="I187" s="3"/>
+    </row>
+    <row r="188" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H188" s="3"/>
+      <c r="I188" s="3"/>
+    </row>
+    <row r="189" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H189" s="3"/>
+      <c r="I189" s="3"/>
+    </row>
+    <row r="190" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H190" s="3"/>
+      <c r="I190" s="3"/>
+    </row>
+    <row r="191" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H191" s="3"/>
+      <c r="I191" s="3"/>
+    </row>
+    <row r="192" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H192" s="3"/>
+      <c r="I192" s="3"/>
+    </row>
+    <row r="193" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H193" s="3"/>
+      <c r="I193" s="3"/>
+    </row>
+    <row r="194" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H194" s="3"/>
+      <c r="I194" s="3"/>
+    </row>
+    <row r="195" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H195" s="3"/>
+      <c r="I195" s="3"/>
+    </row>
+    <row r="196" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H196" s="3"/>
+      <c r="I196" s="3"/>
+    </row>
+    <row r="197" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H197" s="3"/>
+      <c r="I197" s="3"/>
+    </row>
+    <row r="198" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H198" s="3"/>
+      <c r="I198" s="3"/>
+    </row>
+    <row r="199" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H199" s="3"/>
+      <c r="I199" s="3"/>
+    </row>
+    <row r="200" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H200" s="3"/>
+      <c r="I200" s="3"/>
+    </row>
+    <row r="201" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H201" s="3"/>
+      <c r="I201" s="3"/>
+    </row>
+    <row r="202" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H202" s="3"/>
+      <c r="I202" s="3"/>
+    </row>
+    <row r="203" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H203" s="3"/>
+      <c r="I203" s="3"/>
+    </row>
+    <row r="204" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H204" s="3"/>
+      <c r="I204" s="3"/>
+    </row>
+    <row r="205" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H205" s="3"/>
+      <c r="I205" s="3"/>
+    </row>
+    <row r="206" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H206" s="3"/>
+      <c r="I206" s="3"/>
+    </row>
+    <row r="207" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H207" s="3"/>
+      <c r="I207" s="3"/>
+    </row>
+    <row r="208" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H208" s="3"/>
+      <c r="I208" s="3"/>
+    </row>
+    <row r="209" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H209" s="3"/>
+      <c r="I209" s="3"/>
+    </row>
+    <row r="210" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H210" s="3"/>
+      <c r="I210" s="3"/>
+    </row>
+    <row r="211" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H211" s="3"/>
+      <c r="I211" s="3"/>
+    </row>
+    <row r="212" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H212" s="3"/>
+      <c r="I212" s="3"/>
+    </row>
+    <row r="213" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H213" s="3"/>
+      <c r="I213" s="3"/>
+    </row>
+    <row r="214" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H214" s="3"/>
+      <c r="I214" s="3"/>
+    </row>
+    <row r="215" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H215" s="3"/>
+      <c r="I215" s="3"/>
+    </row>
+    <row r="216" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H216" s="3"/>
+      <c r="I216" s="3"/>
+    </row>
+    <row r="217" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H217" s="3"/>
+      <c r="I217" s="3"/>
+    </row>
+    <row r="218" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H218" s="3"/>
+      <c r="I218" s="3"/>
+    </row>
+    <row r="219" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H219" s="3"/>
+      <c r="I219" s="3"/>
+    </row>
+    <row r="220" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H220" s="3"/>
+      <c r="I220" s="3"/>
+    </row>
+    <row r="221" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H221" s="3"/>
+      <c r="I221" s="3"/>
+    </row>
+    <row r="222" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H222" s="3"/>
+      <c r="I222" s="3"/>
+    </row>
+    <row r="223" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H223" s="3"/>
+      <c r="I223" s="3"/>
+    </row>
+    <row r="224" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H224" s="3"/>
+      <c r="I224" s="3"/>
+    </row>
+    <row r="225" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H225" s="3"/>
+      <c r="I225" s="3"/>
+    </row>
+    <row r="226" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H226" s="3"/>
+      <c r="I226" s="3"/>
+    </row>
+    <row r="227" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H227" s="3"/>
+      <c r="I227" s="3"/>
+    </row>
+    <row r="228" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H228" s="3"/>
+      <c r="I228" s="3"/>
+    </row>
+    <row r="229" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H229" s="3"/>
+      <c r="I229" s="3"/>
+    </row>
+    <row r="230" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H230" s="3"/>
+      <c r="I230" s="3"/>
+    </row>
+    <row r="231" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H231" s="3"/>
+      <c r="I231" s="3"/>
+    </row>
+    <row r="232" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H232" s="3"/>
+      <c r="I232" s="3"/>
+    </row>
+    <row r="233" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H233" s="3"/>
+      <c r="I233" s="3"/>
+    </row>
+    <row r="234" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H234" s="3"/>
+      <c r="I234" s="3"/>
+    </row>
+    <row r="235" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H235" s="3"/>
+      <c r="I235" s="3"/>
+    </row>
+    <row r="236" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H236" s="3"/>
+      <c r="I236" s="3"/>
+    </row>
+    <row r="237" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H237" s="3"/>
+      <c r="I237" s="3"/>
+    </row>
+    <row r="238" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H238" s="3"/>
+      <c r="I238" s="3"/>
+    </row>
+    <row r="239" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H239" s="3"/>
+      <c r="I239" s="3"/>
+    </row>
+    <row r="240" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H240" s="3"/>
+      <c r="I240" s="3"/>
+    </row>
+    <row r="241" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H241" s="3"/>
+      <c r="I241" s="3"/>
+    </row>
+    <row r="242" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H242" s="3"/>
+      <c r="I242" s="3"/>
+    </row>
+    <row r="243" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H243" s="3"/>
+      <c r="I243" s="3"/>
+    </row>
+    <row r="244" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H244" s="3"/>
+      <c r="I244" s="3"/>
+    </row>
+    <row r="245" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H245" s="3"/>
+      <c r="I245" s="3"/>
+    </row>
+    <row r="246" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H246" s="3"/>
+      <c r="I246" s="3"/>
+    </row>
+    <row r="247" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H247" s="3"/>
+      <c r="I247" s="3"/>
+    </row>
+    <row r="248" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H248" s="3"/>
+      <c r="I248" s="3"/>
+    </row>
+    <row r="249" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H249" s="3"/>
+      <c r="I249" s="3"/>
+    </row>
+    <row r="250" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H250" s="3"/>
+      <c r="I250" s="3"/>
+    </row>
+    <row r="251" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H251" s="3"/>
+      <c r="I251" s="3"/>
+    </row>
+    <row r="252" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H252" s="3"/>
+      <c r="I252" s="3"/>
+    </row>
+    <row r="253" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H253" s="3"/>
+      <c r="I253" s="3"/>
+    </row>
+    <row r="254" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H254" s="3"/>
+      <c r="I254" s="3"/>
+    </row>
+    <row r="255" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H255" s="3"/>
+      <c r="I255" s="3"/>
+    </row>
+    <row r="256" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H256" s="3"/>
+      <c r="I256" s="3"/>
+    </row>
+    <row r="257" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H257" s="3"/>
+      <c r="I257" s="3"/>
+    </row>
+    <row r="258" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H258" s="3"/>
+      <c r="I258" s="3"/>
+    </row>
+    <row r="259" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H259" s="3"/>
+      <c r="I259" s="3"/>
+    </row>
+    <row r="260" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H260" s="3"/>
+      <c r="I260" s="3"/>
+    </row>
+    <row r="261" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H261" s="3"/>
+      <c r="I261" s="3"/>
+    </row>
+    <row r="262" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H262" s="3"/>
+      <c r="I262" s="3"/>
+    </row>
+    <row r="263" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H263" s="3"/>
+      <c r="I263" s="3"/>
+    </row>
+    <row r="264" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H264" s="3"/>
+      <c r="I264" s="3"/>
+    </row>
+    <row r="265" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H265" s="3"/>
+      <c r="I265" s="3"/>
+    </row>
+    <row r="266" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H266" s="3"/>
+      <c r="I266" s="3"/>
+    </row>
+    <row r="267" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H267" s="3"/>
+      <c r="I267" s="3"/>
+    </row>
+    <row r="268" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H268" s="3"/>
+      <c r="I268" s="3"/>
+    </row>
+    <row r="269" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H269" s="3"/>
+      <c r="I269" s="3"/>
+    </row>
+    <row r="270" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H270" s="3"/>
+      <c r="I270" s="3"/>
+    </row>
+    <row r="271" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H271" s="3"/>
+      <c r="I271" s="3"/>
+    </row>
+    <row r="272" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H272" s="3"/>
+      <c r="I272" s="3"/>
+    </row>
+    <row r="273" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H273" s="3"/>
+      <c r="I273" s="3"/>
+    </row>
+    <row r="274" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H274" s="3"/>
+      <c r="I274" s="3"/>
+    </row>
+    <row r="275" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H275" s="3"/>
+      <c r="I275" s="3"/>
+    </row>
+    <row r="276" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H276" s="3"/>
+      <c r="I276" s="3"/>
+    </row>
+    <row r="277" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H277" s="3"/>
+      <c r="I277" s="3"/>
+    </row>
+    <row r="278" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H278" s="3"/>
+      <c r="I278" s="3"/>
+    </row>
+    <row r="279" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H279" s="3"/>
+      <c r="I279" s="3"/>
+    </row>
+    <row r="280" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H280" s="3"/>
+      <c r="I280" s="3"/>
+    </row>
+    <row r="281" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H281" s="3"/>
+      <c r="I281" s="3"/>
+    </row>
+    <row r="282" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H282" s="3"/>
+      <c r="I282" s="3"/>
+    </row>
+    <row r="283" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H283" s="3"/>
+      <c r="I283" s="3"/>
+    </row>
+    <row r="284" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H284" s="3"/>
+      <c r="I284" s="3"/>
+    </row>
+    <row r="285" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H285" s="3"/>
+      <c r="I285" s="3"/>
+    </row>
+    <row r="286" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H286" s="3"/>
+      <c r="I286" s="3"/>
+    </row>
+    <row r="287" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H287" s="3"/>
+      <c r="I287" s="3"/>
+    </row>
+    <row r="288" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H288" s="3"/>
+      <c r="I288" s="3"/>
+    </row>
+    <row r="289" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H289" s="3"/>
+      <c r="I289" s="3"/>
+    </row>
+    <row r="290" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H290" s="3"/>
+      <c r="I290" s="3"/>
+    </row>
+    <row r="291" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H291" s="3"/>
+      <c r="I291" s="3"/>
+    </row>
+    <row r="292" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H292" s="3"/>
+      <c r="I292" s="3"/>
+    </row>
+    <row r="293" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H293" s="3"/>
+      <c r="I293" s="3"/>
+    </row>
+    <row r="294" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H294" s="3"/>
+      <c r="I294" s="3"/>
+    </row>
+    <row r="295" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H295" s="3"/>
+      <c r="I295" s="3"/>
+    </row>
+    <row r="296" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H296" s="3"/>
+      <c r="I296" s="3"/>
+    </row>
+    <row r="297" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H297" s="3"/>
+      <c r="I297" s="3"/>
+    </row>
+    <row r="298" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H298" s="3"/>
+      <c r="I298" s="3"/>
+    </row>
+    <row r="299" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H299" s="3"/>
+      <c r="I299" s="3"/>
+    </row>
+    <row r="300" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H300" s="3"/>
+      <c r="I300" s="3"/>
+    </row>
+    <row r="301" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H301" s="3"/>
+      <c r="I301" s="3"/>
+    </row>
+    <row r="302" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H302" s="3"/>
+      <c r="I302" s="3"/>
+    </row>
+    <row r="303" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H303" s="3"/>
+      <c r="I303" s="3"/>
+    </row>
+    <row r="304" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H304" s="3"/>
+      <c r="I304" s="3"/>
+    </row>
+    <row r="305" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H305" s="3"/>
+      <c r="I305" s="3"/>
+    </row>
+    <row r="306" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H306" s="3"/>
+      <c r="I306" s="3"/>
+    </row>
+    <row r="307" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H307" s="3"/>
+      <c r="I307" s="3"/>
+    </row>
+    <row r="308" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H308" s="3"/>
+      <c r="I308" s="3"/>
+    </row>
+    <row r="309" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H309" s="3"/>
+      <c r="I309" s="3"/>
+    </row>
+    <row r="310" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H310" s="3"/>
+      <c r="I310" s="3"/>
+    </row>
+    <row r="311" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H311" s="3"/>
+      <c r="I311" s="3"/>
+    </row>
+    <row r="312" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H312" s="3"/>
+      <c r="I312" s="3"/>
+    </row>
+    <row r="313" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H313" s="3"/>
+      <c r="I313" s="3"/>
+    </row>
+    <row r="314" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H314" s="3"/>
+      <c r="I314" s="3"/>
+    </row>
+    <row r="315" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H315" s="3"/>
+      <c r="I315" s="3"/>
+    </row>
+    <row r="316" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H316" s="3"/>
+      <c r="I316" s="3"/>
+    </row>
+    <row r="317" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H317" s="3"/>
+      <c r="I317" s="3"/>
+    </row>
+    <row r="318" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H318" s="3"/>
+      <c r="I318" s="3"/>
+    </row>
+    <row r="319" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H319" s="3"/>
+      <c r="I319" s="3"/>
+    </row>
+    <row r="320" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H320" s="3"/>
+      <c r="I320" s="3"/>
+    </row>
+    <row r="321" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H321" s="3"/>
+      <c r="I321" s="3"/>
+    </row>
+    <row r="322" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H322" s="3"/>
+      <c r="I322" s="3"/>
+    </row>
+    <row r="323" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H323" s="3"/>
+      <c r="I323" s="3"/>
+    </row>
+    <row r="324" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H324" s="3"/>
+      <c r="I324" s="3"/>
+    </row>
+    <row r="325" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H325" s="3"/>
+      <c r="I325" s="3"/>
+    </row>
+    <row r="326" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H326" s="3"/>
+      <c r="I326" s="3"/>
+    </row>
+    <row r="327" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H327" s="3"/>
+      <c r="I327" s="3"/>
+    </row>
+    <row r="328" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H328" s="3"/>
+      <c r="I328" s="3"/>
+    </row>
+    <row r="329" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H329" s="3"/>
+      <c r="I329" s="3"/>
+    </row>
+    <row r="330" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H330" s="3"/>
+      <c r="I330" s="3"/>
+    </row>
+    <row r="331" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H331" s="3"/>
+      <c r="I331" s="3"/>
+    </row>
+    <row r="332" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H332" s="3"/>
+      <c r="I332" s="3"/>
+    </row>
+    <row r="333" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H333" s="3"/>
+      <c r="I333" s="3"/>
+    </row>
+    <row r="334" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H334" s="3"/>
+      <c r="I334" s="3"/>
+    </row>
+    <row r="335" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H335" s="3"/>
+      <c r="I335" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
